--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>797200</v>
+        <v>777700</v>
       </c>
       <c r="E8" s="3">
-        <v>967300</v>
+        <v>943600</v>
       </c>
       <c r="F8" s="3">
-        <v>324400</v>
+        <v>316400</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>63800</v>
+        <v>62300</v>
       </c>
       <c r="E9" s="3">
-        <v>72000</v>
+        <v>70300</v>
       </c>
       <c r="F9" s="3">
-        <v>24100</v>
+        <v>23500</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>733400</v>
+        <v>715400</v>
       </c>
       <c r="E10" s="3">
-        <v>895300</v>
+        <v>873300</v>
       </c>
       <c r="F10" s="3">
-        <v>300300</v>
+        <v>292900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -860,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E14" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>483800</v>
+        <v>471900</v>
       </c>
       <c r="E17" s="3">
-        <v>836400</v>
+        <v>815900</v>
       </c>
       <c r="F17" s="3">
-        <v>267500</v>
+        <v>260900</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>313500</v>
+        <v>305800</v>
       </c>
       <c r="E18" s="3">
-        <v>130900</v>
+        <v>127700</v>
       </c>
       <c r="F18" s="3">
-        <v>56900</v>
+        <v>55500</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>33600</v>
+        <v>32700</v>
       </c>
       <c r="E20" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="F20" s="3">
         <v>3000</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>349700</v>
+        <v>341100</v>
       </c>
       <c r="E21" s="3">
-        <v>146800</v>
+        <v>143200</v>
       </c>
       <c r="F21" s="3">
-        <v>61300</v>
+        <v>59800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>347000</v>
+        <v>338500</v>
       </c>
       <c r="E23" s="3">
-        <v>145100</v>
+        <v>141600</v>
       </c>
       <c r="F23" s="3">
-        <v>59900</v>
+        <v>58500</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57700</v>
+        <v>56300</v>
       </c>
       <c r="E24" s="3">
-        <v>50600</v>
+        <v>49300</v>
       </c>
       <c r="F24" s="3">
-        <v>38900</v>
+        <v>37900</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>289300</v>
+        <v>282200</v>
       </c>
       <c r="E26" s="3">
-        <v>94600</v>
+        <v>92200</v>
       </c>
       <c r="F26" s="3">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>246800</v>
+        <v>240700</v>
       </c>
       <c r="E27" s="3">
-        <v>57600</v>
+        <v>56200</v>
       </c>
       <c r="F27" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33600</v>
+        <v>-32700</v>
       </c>
       <c r="E32" s="3">
-        <v>-14200</v>
+        <v>-13900</v>
       </c>
       <c r="F32" s="3">
         <v>-3000</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>246800</v>
+        <v>240700</v>
       </c>
       <c r="E33" s="3">
-        <v>57600</v>
+        <v>56200</v>
       </c>
       <c r="F33" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>246800</v>
+        <v>240700</v>
       </c>
       <c r="E35" s="3">
-        <v>57600</v>
+        <v>56200</v>
       </c>
       <c r="F35" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>784700</v>
+        <v>766500</v>
       </c>
       <c r="E41" s="3">
-        <v>542100</v>
+        <v>529500</v>
       </c>
       <c r="F41" s="3">
-        <v>177700</v>
+        <v>173600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69700</v>
+        <v>68000</v>
       </c>
       <c r="E43" s="3">
-        <v>59100</v>
+        <v>57700</v>
       </c>
       <c r="F43" s="3">
-        <v>41600</v>
+        <v>40600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55100</v>
+        <v>53800</v>
       </c>
       <c r="E45" s="3">
-        <v>56200</v>
+        <v>54900</v>
       </c>
       <c r="F45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>341700</v>
+        <v>333800</v>
       </c>
       <c r="E47" s="3">
-        <v>191700</v>
+        <v>187200</v>
       </c>
       <c r="F47" s="3">
-        <v>34000</v>
+        <v>33200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="E48" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F48" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E49" s="3">
         <v>8300</v>
       </c>
-      <c r="E49" s="3">
-        <v>8500</v>
-      </c>
       <c r="F49" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12100</v>
+        <v>11800</v>
       </c>
       <c r="E52" s="3">
-        <v>16000</v>
+        <v>15700</v>
       </c>
       <c r="F52" s="3">
-        <v>28800</v>
+        <v>28100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1306800</v>
+        <v>1276600</v>
       </c>
       <c r="E54" s="3">
-        <v>900400</v>
+        <v>879600</v>
       </c>
       <c r="F54" s="3">
-        <v>309000</v>
+        <v>301900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22300</v>
+        <v>21800</v>
       </c>
       <c r="E57" s="3">
-        <v>21900</v>
+        <v>21400</v>
       </c>
       <c r="F57" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>125700</v>
+        <v>122800</v>
       </c>
       <c r="E59" s="3">
-        <v>167400</v>
+        <v>163500</v>
       </c>
       <c r="F59" s="3">
-        <v>109700</v>
+        <v>107200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>212500</v>
+        <v>207600</v>
       </c>
       <c r="E66" s="3">
-        <v>253500</v>
+        <v>247700</v>
       </c>
       <c r="F66" s="3">
-        <v>136500</v>
+        <v>133400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2222,13 +2222,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>198300</v>
+        <v>193800</v>
       </c>
       <c r="E70" s="3">
-        <v>117700</v>
+        <v>115000</v>
       </c>
       <c r="F70" s="3">
-        <v>30900</v>
+        <v>30200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>447300</v>
+        <v>437000</v>
       </c>
       <c r="E72" s="3">
-        <v>165400</v>
+        <v>161600</v>
       </c>
       <c r="F72" s="3">
-        <v>101400</v>
+        <v>99000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>896000</v>
+        <v>875200</v>
       </c>
       <c r="E76" s="3">
-        <v>529200</v>
+        <v>517000</v>
       </c>
       <c r="F76" s="3">
-        <v>141600</v>
+        <v>138300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>246800</v>
+        <v>240700</v>
       </c>
       <c r="E81" s="3">
-        <v>57600</v>
+        <v>56200</v>
       </c>
       <c r="F81" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,7 +2510,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E83" s="3">
         <v>1700</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>336600</v>
+        <v>328300</v>
       </c>
       <c r="E89" s="3">
-        <v>411200</v>
+        <v>401100</v>
       </c>
       <c r="F89" s="3">
-        <v>59400</v>
+        <v>57900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-177500</v>
+        <v>-173100</v>
       </c>
       <c r="E94" s="3">
-        <v>-145200</v>
+        <v>-141600</v>
       </c>
       <c r="F94" s="3">
-        <v>-32000</v>
+        <v>-31200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>78300</v>
+        <v>76400</v>
       </c>
       <c r="E100" s="3">
-        <v>80800</v>
+        <v>78800</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -2968,10 +2968,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E101" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="F101" s="3">
         <v>1800</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>242500</v>
+        <v>236600</v>
       </c>
       <c r="E102" s="3">
-        <v>343500</v>
+        <v>335100</v>
       </c>
       <c r="F102" s="3">
-        <v>29300</v>
+        <v>28600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>JFU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>777700</v>
+        <v>642600</v>
       </c>
       <c r="E8" s="3">
-        <v>943600</v>
+        <v>807000</v>
       </c>
       <c r="F8" s="3">
-        <v>316400</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>979100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>328300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,23 +735,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>62300</v>
+        <v>165200</v>
       </c>
       <c r="E9" s="3">
-        <v>70300</v>
+        <v>64600</v>
       </c>
       <c r="F9" s="3">
-        <v>23500</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>72900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>24400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -759,23 +765,26 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>715400</v>
+        <v>477400</v>
       </c>
       <c r="E10" s="3">
-        <v>873300</v>
+        <v>742400</v>
       </c>
       <c r="F10" s="3">
-        <v>292900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>906200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>303900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,23 +869,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3300</v>
+        <v>22500</v>
       </c>
       <c r="E14" s="3">
-        <v>1100</v>
+        <v>3400</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>1200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -880,9 +899,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +943,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>471900</v>
+        <v>1007900</v>
       </c>
       <c r="E17" s="3">
-        <v>815900</v>
+        <v>489700</v>
       </c>
       <c r="F17" s="3">
-        <v>260900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>846600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>270700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +970,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>305800</v>
+        <v>-365300</v>
       </c>
       <c r="E18" s="3">
-        <v>127700</v>
+        <v>317300</v>
       </c>
       <c r="F18" s="3">
-        <v>55500</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>132500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>57600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,22 +1017,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32700</v>
+        <v>42800</v>
       </c>
       <c r="E20" s="3">
-        <v>13900</v>
+        <v>34000</v>
       </c>
       <c r="F20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>14400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>341100</v>
+        <v>-317000</v>
       </c>
       <c r="E21" s="3">
-        <v>143200</v>
+        <v>354000</v>
       </c>
       <c r="F21" s="3">
-        <v>59800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>148600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>62000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,23 +1104,26 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>338500</v>
+        <v>-322500</v>
       </c>
       <c r="E23" s="3">
-        <v>141600</v>
+        <v>351300</v>
       </c>
       <c r="F23" s="3">
-        <v>58500</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>146900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>60700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,23 +1134,26 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56300</v>
+        <v>-25400</v>
       </c>
       <c r="E24" s="3">
-        <v>49300</v>
+        <v>58400</v>
       </c>
       <c r="F24" s="3">
-        <v>37900</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>51200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>39400</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1194,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>282200</v>
+        <v>-297100</v>
       </c>
       <c r="E26" s="3">
-        <v>92200</v>
+        <v>292800</v>
       </c>
       <c r="F26" s="3">
-        <v>20500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>95700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>21300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1224,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>240700</v>
+        <v>-315200</v>
       </c>
       <c r="E27" s="3">
-        <v>56200</v>
+        <v>249800</v>
       </c>
       <c r="F27" s="3">
-        <v>19900</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>58300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>20700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,23 +1374,26 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32700</v>
+        <v>-42800</v>
       </c>
       <c r="E32" s="3">
-        <v>-13900</v>
+        <v>-34000</v>
       </c>
       <c r="F32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-14400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-3100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1335,23 +1404,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>240700</v>
+        <v>-315200</v>
       </c>
       <c r="E33" s="3">
-        <v>56200</v>
+        <v>249800</v>
       </c>
       <c r="F33" s="3">
-        <v>19900</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>58300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>20700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1464,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>240700</v>
+        <v>-315200</v>
       </c>
       <c r="E35" s="3">
-        <v>56200</v>
+        <v>249800</v>
       </c>
       <c r="F35" s="3">
-        <v>19900</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>58300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>20700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1560,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>766500</v>
+        <v>680300</v>
       </c>
       <c r="E41" s="3">
-        <v>529500</v>
+        <v>794300</v>
       </c>
       <c r="F41" s="3">
-        <v>173600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>548700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>179900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>68000</v>
+        <v>68700</v>
       </c>
       <c r="E43" s="3">
-        <v>57700</v>
+        <v>70500</v>
       </c>
       <c r="F43" s="3">
-        <v>40600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>59800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>42100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,23 +1677,26 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>53800</v>
+        <v>142500</v>
       </c>
       <c r="E45" s="3">
-        <v>54900</v>
+        <v>55800</v>
       </c>
       <c r="F45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>56900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1609,9 +1707,12 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1636,23 +1737,26 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>333800</v>
+        <v>227000</v>
       </c>
       <c r="E47" s="3">
-        <v>187200</v>
+        <v>345900</v>
       </c>
       <c r="F47" s="3">
-        <v>33200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>194000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>34400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1663,23 +1767,26 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12100</v>
+        <v>33700</v>
       </c>
       <c r="E48" s="3">
-        <v>7700</v>
+        <v>12500</v>
       </c>
       <c r="F48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>7900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,23 +1797,26 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8100</v>
+        <v>21200</v>
       </c>
       <c r="E49" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="F49" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>8600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,23 +1887,26 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11800</v>
+        <v>93600</v>
       </c>
       <c r="E52" s="3">
-        <v>15700</v>
+        <v>12200</v>
       </c>
       <c r="F52" s="3">
-        <v>28100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>16200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>29100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1276600</v>
+        <v>1289700</v>
       </c>
       <c r="E54" s="3">
-        <v>879600</v>
+        <v>1322700</v>
       </c>
       <c r="F54" s="3">
-        <v>301900</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>911400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>312800</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,22 +2008,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21800</v>
+        <v>36100</v>
       </c>
       <c r="E57" s="3">
-        <v>21400</v>
+        <v>22600</v>
       </c>
       <c r="F57" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1905,9 +2035,12 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1932,23 +2065,26 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122800</v>
+        <v>203400</v>
       </c>
       <c r="E59" s="3">
-        <v>163500</v>
+        <v>127300</v>
       </c>
       <c r="F59" s="3">
-        <v>107200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>169400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>111000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,9 +2095,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,24 +2155,27 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="E62" s="3">
         <v>1300</v>
       </c>
       <c r="F62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>207600</v>
+        <v>377500</v>
       </c>
       <c r="E66" s="3">
-        <v>247700</v>
+        <v>215100</v>
       </c>
       <c r="F66" s="3">
-        <v>133400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>256600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>138200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,23 +2379,26 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>193800</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>115000</v>
+        <v>200800</v>
       </c>
       <c r="F70" s="3">
-        <v>30200</v>
+        <v>119100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>31300</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2439,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>437000</v>
+        <v>137600</v>
       </c>
       <c r="E72" s="3">
-        <v>161600</v>
+        <v>452800</v>
       </c>
       <c r="F72" s="3">
-        <v>99000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>167400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>102600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2559,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>875200</v>
+        <v>912200</v>
       </c>
       <c r="E76" s="3">
-        <v>517000</v>
+        <v>906900</v>
       </c>
       <c r="F76" s="3">
-        <v>138300</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>535700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>143300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2654,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>240700</v>
+        <v>-315200</v>
       </c>
       <c r="E81" s="3">
-        <v>56200</v>
+        <v>249800</v>
       </c>
       <c r="F81" s="3">
-        <v>19900</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>58300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>20700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2701,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2600</v>
+        <v>5400</v>
       </c>
       <c r="E83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>1400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>328300</v>
+        <v>-62300</v>
       </c>
       <c r="E89" s="3">
-        <v>401100</v>
+        <v>340700</v>
       </c>
       <c r="F89" s="3">
-        <v>57900</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>416200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>60100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2925,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6800</v>
+        <v>-8200</v>
       </c>
       <c r="E91" s="3">
-        <v>-6700</v>
+        <v>-7100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-6900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2900</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-173100</v>
+        <v>-102800</v>
       </c>
       <c r="E94" s="3">
-        <v>-141600</v>
+        <v>-179600</v>
       </c>
       <c r="F94" s="3">
-        <v>-31200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-146900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-32400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,24 +3176,27 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>76400</v>
+        <v>68500</v>
       </c>
       <c r="E100" s="3">
-        <v>78800</v>
+        <v>79300</v>
       </c>
       <c r="F100" s="3">
+        <v>81800</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,24 +3206,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4900</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>-3200</v>
+        <v>5100</v>
       </c>
       <c r="F101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,23 +3236,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>236600</v>
+        <v>-95800</v>
       </c>
       <c r="E102" s="3">
-        <v>335100</v>
+        <v>245500</v>
       </c>
       <c r="F102" s="3">
-        <v>28600</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>347700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>29700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>642600</v>
+        <v>673100</v>
       </c>
       <c r="E8" s="3">
-        <v>807000</v>
+        <v>845300</v>
       </c>
       <c r="F8" s="3">
-        <v>979100</v>
+        <v>1025600</v>
       </c>
       <c r="G8" s="3">
-        <v>328300</v>
+        <v>343900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>165200</v>
+        <v>173000</v>
       </c>
       <c r="E9" s="3">
-        <v>64600</v>
+        <v>67700</v>
       </c>
       <c r="F9" s="3">
-        <v>72900</v>
+        <v>76400</v>
       </c>
       <c r="G9" s="3">
-        <v>24400</v>
+        <v>25600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>477400</v>
+        <v>500100</v>
       </c>
       <c r="E10" s="3">
-        <v>742400</v>
+        <v>777600</v>
       </c>
       <c r="F10" s="3">
-        <v>906200</v>
+        <v>949200</v>
       </c>
       <c r="G10" s="3">
-        <v>303900</v>
+        <v>318300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22500</v>
+        <v>23600</v>
       </c>
       <c r="E14" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="F14" s="3">
         <v>1200</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1007900</v>
+        <v>1055700</v>
       </c>
       <c r="E17" s="3">
-        <v>489700</v>
+        <v>512900</v>
       </c>
       <c r="F17" s="3">
-        <v>846600</v>
+        <v>886800</v>
       </c>
       <c r="G17" s="3">
-        <v>270700</v>
+        <v>283600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-365300</v>
+        <v>-382600</v>
       </c>
       <c r="E18" s="3">
-        <v>317300</v>
+        <v>332300</v>
       </c>
       <c r="F18" s="3">
-        <v>132500</v>
+        <v>138800</v>
       </c>
       <c r="G18" s="3">
-        <v>57600</v>
+        <v>60300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,16 +1024,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>42800</v>
+        <v>44900</v>
       </c>
       <c r="E20" s="3">
-        <v>34000</v>
+        <v>35600</v>
       </c>
       <c r="F20" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="G20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-317000</v>
+        <v>-332100</v>
       </c>
       <c r="E21" s="3">
-        <v>354000</v>
+        <v>370800</v>
       </c>
       <c r="F21" s="3">
-        <v>148600</v>
+        <v>155700</v>
       </c>
       <c r="G21" s="3">
-        <v>62000</v>
+        <v>65000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-322500</v>
+        <v>-337800</v>
       </c>
       <c r="E23" s="3">
-        <v>351300</v>
+        <v>367900</v>
       </c>
       <c r="F23" s="3">
-        <v>146900</v>
+        <v>153900</v>
       </c>
       <c r="G23" s="3">
-        <v>60700</v>
+        <v>63500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-25400</v>
+        <v>-26600</v>
       </c>
       <c r="E24" s="3">
-        <v>58400</v>
+        <v>61200</v>
       </c>
       <c r="F24" s="3">
-        <v>51200</v>
+        <v>53600</v>
       </c>
       <c r="G24" s="3">
-        <v>39400</v>
+        <v>41200</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-297100</v>
+        <v>-311200</v>
       </c>
       <c r="E26" s="3">
-        <v>292800</v>
+        <v>306700</v>
       </c>
       <c r="F26" s="3">
-        <v>95700</v>
+        <v>100300</v>
       </c>
       <c r="G26" s="3">
-        <v>21300</v>
+        <v>22300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-315200</v>
+        <v>-330100</v>
       </c>
       <c r="E27" s="3">
-        <v>249800</v>
+        <v>261600</v>
       </c>
       <c r="F27" s="3">
-        <v>58300</v>
+        <v>61000</v>
       </c>
       <c r="G27" s="3">
-        <v>20700</v>
+        <v>21600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,16 +1384,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-42800</v>
+        <v>-44900</v>
       </c>
       <c r="E32" s="3">
-        <v>-34000</v>
+        <v>-35600</v>
       </c>
       <c r="F32" s="3">
-        <v>-14400</v>
+        <v>-15100</v>
       </c>
       <c r="G32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-315200</v>
+        <v>-330100</v>
       </c>
       <c r="E33" s="3">
-        <v>249800</v>
+        <v>261600</v>
       </c>
       <c r="F33" s="3">
-        <v>58300</v>
+        <v>61000</v>
       </c>
       <c r="G33" s="3">
-        <v>20700</v>
+        <v>21600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-315200</v>
+        <v>-330100</v>
       </c>
       <c r="E35" s="3">
-        <v>249800</v>
+        <v>261600</v>
       </c>
       <c r="F35" s="3">
-        <v>58300</v>
+        <v>61000</v>
       </c>
       <c r="G35" s="3">
-        <v>20700</v>
+        <v>21600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>680300</v>
+        <v>712500</v>
       </c>
       <c r="E41" s="3">
-        <v>794300</v>
+        <v>832000</v>
       </c>
       <c r="F41" s="3">
-        <v>548700</v>
+        <v>574700</v>
       </c>
       <c r="G41" s="3">
-        <v>179900</v>
+        <v>188400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>68700</v>
+        <v>72000</v>
       </c>
       <c r="E43" s="3">
-        <v>70500</v>
+        <v>73900</v>
       </c>
       <c r="F43" s="3">
-        <v>59800</v>
+        <v>62600</v>
       </c>
       <c r="G43" s="3">
-        <v>42100</v>
+        <v>44100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>142500</v>
+        <v>149200</v>
       </c>
       <c r="E45" s="3">
-        <v>55800</v>
+        <v>58400</v>
       </c>
       <c r="F45" s="3">
-        <v>56900</v>
+        <v>59600</v>
       </c>
       <c r="G45" s="3">
         <v>1600</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>227000</v>
+        <v>237800</v>
       </c>
       <c r="E47" s="3">
-        <v>345900</v>
+        <v>362300</v>
       </c>
       <c r="F47" s="3">
-        <v>194000</v>
+        <v>203200</v>
       </c>
       <c r="G47" s="3">
-        <v>34400</v>
+        <v>36000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="E48" s="3">
-        <v>12500</v>
+        <v>13100</v>
       </c>
       <c r="F48" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="G48" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21200</v>
+        <v>22200</v>
       </c>
       <c r="E49" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="F49" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="G49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93600</v>
+        <v>98100</v>
       </c>
       <c r="E52" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="F52" s="3">
-        <v>16200</v>
+        <v>17000</v>
       </c>
       <c r="G52" s="3">
-        <v>29100</v>
+        <v>30500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1289700</v>
+        <v>1350900</v>
       </c>
       <c r="E54" s="3">
-        <v>1322700</v>
+        <v>1385500</v>
       </c>
       <c r="F54" s="3">
-        <v>911400</v>
+        <v>954700</v>
       </c>
       <c r="G54" s="3">
-        <v>312800</v>
+        <v>327600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36100</v>
+        <v>37800</v>
       </c>
       <c r="E57" s="3">
-        <v>22600</v>
+        <v>23700</v>
       </c>
       <c r="F57" s="3">
-        <v>22200</v>
+        <v>23200</v>
       </c>
       <c r="G57" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>203400</v>
+        <v>213100</v>
       </c>
       <c r="E59" s="3">
-        <v>127300</v>
+        <v>133300</v>
       </c>
       <c r="F59" s="3">
-        <v>169400</v>
+        <v>177500</v>
       </c>
       <c r="G59" s="3">
-        <v>111000</v>
+        <v>116300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E62" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>377500</v>
+        <v>395400</v>
       </c>
       <c r="E66" s="3">
-        <v>215100</v>
+        <v>225300</v>
       </c>
       <c r="F66" s="3">
-        <v>256600</v>
+        <v>268800</v>
       </c>
       <c r="G66" s="3">
-        <v>138200</v>
+        <v>144800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>200800</v>
+        <v>210300</v>
       </c>
       <c r="F70" s="3">
-        <v>119100</v>
+        <v>124800</v>
       </c>
       <c r="G70" s="3">
-        <v>31300</v>
+        <v>32800</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>137600</v>
+        <v>144100</v>
       </c>
       <c r="E72" s="3">
-        <v>452800</v>
+        <v>474200</v>
       </c>
       <c r="F72" s="3">
-        <v>167400</v>
+        <v>175400</v>
       </c>
       <c r="G72" s="3">
-        <v>102600</v>
+        <v>107500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>912200</v>
+        <v>955400</v>
       </c>
       <c r="E76" s="3">
-        <v>906900</v>
+        <v>949900</v>
       </c>
       <c r="F76" s="3">
-        <v>535700</v>
+        <v>561100</v>
       </c>
       <c r="G76" s="3">
-        <v>143300</v>
+        <v>150000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-315200</v>
+        <v>-330100</v>
       </c>
       <c r="E81" s="3">
-        <v>249800</v>
+        <v>261600</v>
       </c>
       <c r="F81" s="3">
-        <v>58300</v>
+        <v>61000</v>
       </c>
       <c r="G81" s="3">
-        <v>20700</v>
+        <v>21600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="E83" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="F83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G83" s="3">
         <v>1400</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-62300</v>
+        <v>-65300</v>
       </c>
       <c r="E89" s="3">
-        <v>340700</v>
+        <v>356900</v>
       </c>
       <c r="F89" s="3">
-        <v>416200</v>
+        <v>435900</v>
       </c>
       <c r="G89" s="3">
-        <v>60100</v>
+        <v>63000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8200</v>
+        <v>-8600</v>
       </c>
       <c r="E91" s="3">
-        <v>-7100</v>
+        <v>-7400</v>
       </c>
       <c r="F91" s="3">
-        <v>-6900</v>
+        <v>-7300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-102800</v>
+        <v>-107600</v>
       </c>
       <c r="E94" s="3">
-        <v>-179600</v>
+        <v>-188100</v>
       </c>
       <c r="F94" s="3">
-        <v>-146900</v>
+        <v>-153900</v>
       </c>
       <c r="G94" s="3">
-        <v>-32400</v>
+        <v>-33900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>68500</v>
+        <v>71800</v>
       </c>
       <c r="E100" s="3">
-        <v>79300</v>
+        <v>83000</v>
       </c>
       <c r="F100" s="3">
-        <v>81800</v>
+        <v>85700</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -3216,16 +3216,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="F101" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-95800</v>
+        <v>-100300</v>
       </c>
       <c r="E102" s="3">
-        <v>245500</v>
+        <v>257100</v>
       </c>
       <c r="F102" s="3">
-        <v>347700</v>
+        <v>364200</v>
       </c>
       <c r="G102" s="3">
-        <v>29700</v>
+        <v>31100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>673100</v>
+        <v>676000</v>
       </c>
       <c r="E8" s="3">
-        <v>845300</v>
+        <v>848900</v>
       </c>
       <c r="F8" s="3">
-        <v>1025600</v>
+        <v>1030000</v>
       </c>
       <c r="G8" s="3">
-        <v>343900</v>
+        <v>345400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>173000</v>
+        <v>173800</v>
       </c>
       <c r="E9" s="3">
-        <v>67700</v>
+        <v>68000</v>
       </c>
       <c r="F9" s="3">
-        <v>76400</v>
+        <v>76700</v>
       </c>
       <c r="G9" s="3">
-        <v>25600</v>
+        <v>25700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>500100</v>
+        <v>502300</v>
       </c>
       <c r="E10" s="3">
-        <v>777600</v>
+        <v>781000</v>
       </c>
       <c r="F10" s="3">
-        <v>949200</v>
+        <v>953300</v>
       </c>
       <c r="G10" s="3">
-        <v>318300</v>
+        <v>319700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="E14" s="3">
         <v>3600</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1055700</v>
+        <v>1060300</v>
       </c>
       <c r="E17" s="3">
-        <v>512900</v>
+        <v>515100</v>
       </c>
       <c r="F17" s="3">
-        <v>886800</v>
+        <v>890600</v>
       </c>
       <c r="G17" s="3">
-        <v>283600</v>
+        <v>284800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-382600</v>
+        <v>-384300</v>
       </c>
       <c r="E18" s="3">
-        <v>332300</v>
+        <v>333800</v>
       </c>
       <c r="F18" s="3">
-        <v>138800</v>
+        <v>139400</v>
       </c>
       <c r="G18" s="3">
-        <v>60300</v>
+        <v>60600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44900</v>
+        <v>45100</v>
       </c>
       <c r="E20" s="3">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="F20" s="3">
         <v>15100</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-332100</v>
+        <v>-333500</v>
       </c>
       <c r="E21" s="3">
-        <v>370800</v>
+        <v>372400</v>
       </c>
       <c r="F21" s="3">
-        <v>155700</v>
+        <v>156400</v>
       </c>
       <c r="G21" s="3">
-        <v>65000</v>
+        <v>65300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-337800</v>
+        <v>-339200</v>
       </c>
       <c r="E23" s="3">
-        <v>367900</v>
+        <v>369500</v>
       </c>
       <c r="F23" s="3">
-        <v>153900</v>
+        <v>154500</v>
       </c>
       <c r="G23" s="3">
-        <v>63500</v>
+        <v>63800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-26600</v>
+        <v>-26700</v>
       </c>
       <c r="E24" s="3">
-        <v>61200</v>
+        <v>61500</v>
       </c>
       <c r="F24" s="3">
-        <v>53600</v>
+        <v>53800</v>
       </c>
       <c r="G24" s="3">
-        <v>41200</v>
+        <v>41400</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-311200</v>
+        <v>-312500</v>
       </c>
       <c r="E26" s="3">
-        <v>306700</v>
+        <v>308100</v>
       </c>
       <c r="F26" s="3">
-        <v>100300</v>
+        <v>100700</v>
       </c>
       <c r="G26" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-330100</v>
+        <v>-331600</v>
       </c>
       <c r="E27" s="3">
-        <v>261600</v>
+        <v>262800</v>
       </c>
       <c r="F27" s="3">
-        <v>61000</v>
+        <v>61300</v>
       </c>
       <c r="G27" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,10 +1384,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44900</v>
+        <v>-45100</v>
       </c>
       <c r="E32" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="F32" s="3">
         <v>-15100</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-330100</v>
+        <v>-331600</v>
       </c>
       <c r="E33" s="3">
-        <v>261600</v>
+        <v>262800</v>
       </c>
       <c r="F33" s="3">
-        <v>61000</v>
+        <v>61300</v>
       </c>
       <c r="G33" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-330100</v>
+        <v>-331600</v>
       </c>
       <c r="E35" s="3">
-        <v>261600</v>
+        <v>262800</v>
       </c>
       <c r="F35" s="3">
-        <v>61000</v>
+        <v>61300</v>
       </c>
       <c r="G35" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>712500</v>
+        <v>715600</v>
       </c>
       <c r="E41" s="3">
-        <v>832000</v>
+        <v>835600</v>
       </c>
       <c r="F41" s="3">
-        <v>574700</v>
+        <v>577200</v>
       </c>
       <c r="G41" s="3">
-        <v>188400</v>
+        <v>189200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>72000</v>
+        <v>72300</v>
       </c>
       <c r="E43" s="3">
-        <v>73900</v>
+        <v>74200</v>
       </c>
       <c r="F43" s="3">
-        <v>62600</v>
+        <v>62900</v>
       </c>
       <c r="G43" s="3">
-        <v>44100</v>
+        <v>44300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>149200</v>
+        <v>149900</v>
       </c>
       <c r="E45" s="3">
-        <v>58400</v>
+        <v>58700</v>
       </c>
       <c r="F45" s="3">
-        <v>59600</v>
+        <v>59900</v>
       </c>
       <c r="G45" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>237800</v>
+        <v>238800</v>
       </c>
       <c r="E47" s="3">
-        <v>362300</v>
+        <v>363900</v>
       </c>
       <c r="F47" s="3">
-        <v>203200</v>
+        <v>204100</v>
       </c>
       <c r="G47" s="3">
-        <v>36000</v>
+        <v>36200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="E48" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="F48" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="G48" s="3">
         <v>3100</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="E49" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F49" s="3">
         <v>9000</v>
       </c>
       <c r="G49" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98100</v>
+        <v>98500</v>
       </c>
       <c r="E52" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="F52" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="G52" s="3">
-        <v>30500</v>
+        <v>30600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1350900</v>
+        <v>1356700</v>
       </c>
       <c r="E54" s="3">
-        <v>1385500</v>
+        <v>1391500</v>
       </c>
       <c r="F54" s="3">
-        <v>954700</v>
+        <v>958800</v>
       </c>
       <c r="G54" s="3">
-        <v>327600</v>
+        <v>329000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37800</v>
+        <v>38000</v>
       </c>
       <c r="E57" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="F57" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="G57" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>213100</v>
+        <v>214000</v>
       </c>
       <c r="E59" s="3">
-        <v>133300</v>
+        <v>133900</v>
       </c>
       <c r="F59" s="3">
-        <v>177500</v>
+        <v>178200</v>
       </c>
       <c r="G59" s="3">
-        <v>116300</v>
+        <v>116800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>395400</v>
+        <v>397200</v>
       </c>
       <c r="E66" s="3">
-        <v>225300</v>
+        <v>226300</v>
       </c>
       <c r="F66" s="3">
-        <v>268800</v>
+        <v>270000</v>
       </c>
       <c r="G66" s="3">
-        <v>144800</v>
+        <v>145400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>210300</v>
+        <v>211200</v>
       </c>
       <c r="F70" s="3">
-        <v>124800</v>
+        <v>125300</v>
       </c>
       <c r="G70" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>144100</v>
+        <v>144700</v>
       </c>
       <c r="E72" s="3">
-        <v>474200</v>
+        <v>476300</v>
       </c>
       <c r="F72" s="3">
-        <v>175400</v>
+        <v>176200</v>
       </c>
       <c r="G72" s="3">
-        <v>107500</v>
+        <v>108000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>955400</v>
+        <v>959600</v>
       </c>
       <c r="E76" s="3">
-        <v>949900</v>
+        <v>954000</v>
       </c>
       <c r="F76" s="3">
-        <v>561100</v>
+        <v>563600</v>
       </c>
       <c r="G76" s="3">
-        <v>150000</v>
+        <v>150700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-330100</v>
+        <v>-331600</v>
       </c>
       <c r="E81" s="3">
-        <v>261600</v>
+        <v>262800</v>
       </c>
       <c r="F81" s="3">
-        <v>61000</v>
+        <v>61300</v>
       </c>
       <c r="G81" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-65300</v>
+        <v>-65500</v>
       </c>
       <c r="E89" s="3">
-        <v>356900</v>
+        <v>358400</v>
       </c>
       <c r="F89" s="3">
-        <v>435900</v>
+        <v>437800</v>
       </c>
       <c r="G89" s="3">
-        <v>63000</v>
+        <v>63200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,7 +2932,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="E91" s="3">
         <v>-7400</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-107600</v>
+        <v>-108100</v>
       </c>
       <c r="E94" s="3">
-        <v>-188100</v>
+        <v>-189000</v>
       </c>
       <c r="F94" s="3">
-        <v>-153900</v>
+        <v>-154600</v>
       </c>
       <c r="G94" s="3">
-        <v>-33900</v>
+        <v>-34100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>71800</v>
+        <v>72100</v>
       </c>
       <c r="E100" s="3">
-        <v>83000</v>
+        <v>83400</v>
       </c>
       <c r="F100" s="3">
-        <v>85700</v>
+        <v>86100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100300</v>
+        <v>-100800</v>
       </c>
       <c r="E102" s="3">
-        <v>257100</v>
+        <v>258200</v>
       </c>
       <c r="F102" s="3">
-        <v>364200</v>
+        <v>365800</v>
       </c>
       <c r="G102" s="3">
-        <v>31100</v>
+        <v>31200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>JFU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>676000</v>
+        <v>195900</v>
       </c>
       <c r="E8" s="3">
-        <v>848900</v>
+        <v>690300</v>
       </c>
       <c r="F8" s="3">
-        <v>1030000</v>
+        <v>866900</v>
       </c>
       <c r="G8" s="3">
-        <v>345400</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>1051800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>352700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>173800</v>
+        <v>84800</v>
       </c>
       <c r="E9" s="3">
-        <v>68000</v>
+        <v>177500</v>
       </c>
       <c r="F9" s="3">
-        <v>76700</v>
+        <v>69400</v>
       </c>
       <c r="G9" s="3">
-        <v>25700</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>78300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>26200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,26 +774,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>502300</v>
+        <v>111200</v>
       </c>
       <c r="E10" s="3">
-        <v>781000</v>
+        <v>512900</v>
       </c>
       <c r="F10" s="3">
-        <v>953300</v>
+        <v>797500</v>
       </c>
       <c r="G10" s="3">
-        <v>319700</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>973500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>326500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,26 +888,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23700</v>
+        <v>85900</v>
       </c>
       <c r="E14" s="3">
-        <v>3600</v>
+        <v>24200</v>
       </c>
       <c r="F14" s="3">
-        <v>1200</v>
+        <v>3700</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1060300</v>
+        <v>481900</v>
       </c>
       <c r="E17" s="3">
-        <v>515100</v>
+        <v>1082700</v>
       </c>
       <c r="F17" s="3">
-        <v>890600</v>
+        <v>526000</v>
       </c>
       <c r="G17" s="3">
-        <v>284800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>909400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>290800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-384300</v>
+        <v>-286000</v>
       </c>
       <c r="E18" s="3">
-        <v>333800</v>
+        <v>-392400</v>
       </c>
       <c r="F18" s="3">
-        <v>139400</v>
+        <v>340800</v>
       </c>
       <c r="G18" s="3">
-        <v>60600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>142300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>61900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,25 +1050,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>45100</v>
+        <v>22100</v>
       </c>
       <c r="E20" s="3">
-        <v>35700</v>
+        <v>46000</v>
       </c>
       <c r="F20" s="3">
-        <v>15100</v>
+        <v>36500</v>
       </c>
       <c r="G20" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>15500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3300</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-333500</v>
+        <v>-260100</v>
       </c>
       <c r="E21" s="3">
-        <v>372400</v>
+        <v>-340600</v>
       </c>
       <c r="F21" s="3">
-        <v>156400</v>
+        <v>380300</v>
       </c>
       <c r="G21" s="3">
-        <v>65300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>159700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>66600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,26 +1146,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-339200</v>
+        <v>-263900</v>
       </c>
       <c r="E23" s="3">
-        <v>369500</v>
+        <v>-346400</v>
       </c>
       <c r="F23" s="3">
-        <v>154500</v>
+        <v>377300</v>
       </c>
       <c r="G23" s="3">
-        <v>63800</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>157800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>65200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,26 +1179,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-26700</v>
+        <v>84000</v>
       </c>
       <c r="E24" s="3">
-        <v>61500</v>
+        <v>-27200</v>
       </c>
       <c r="F24" s="3">
-        <v>53800</v>
+        <v>62800</v>
       </c>
       <c r="G24" s="3">
-        <v>41400</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>55000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>42300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-312500</v>
+        <v>-347900</v>
       </c>
       <c r="E26" s="3">
-        <v>308100</v>
+        <v>-319200</v>
       </c>
       <c r="F26" s="3">
-        <v>100700</v>
+        <v>314600</v>
       </c>
       <c r="G26" s="3">
-        <v>22400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>102800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>22900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-331600</v>
+        <v>-352400</v>
       </c>
       <c r="E27" s="3">
-        <v>262800</v>
+        <v>-338600</v>
       </c>
       <c r="F27" s="3">
-        <v>61300</v>
+        <v>268300</v>
       </c>
       <c r="G27" s="3">
-        <v>21700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>62600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>22200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,26 +1443,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-45100</v>
+        <v>-22100</v>
       </c>
       <c r="E32" s="3">
-        <v>-35700</v>
+        <v>-46000</v>
       </c>
       <c r="F32" s="3">
-        <v>-15100</v>
+        <v>-36500</v>
       </c>
       <c r="G32" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>-15500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3300</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-331600</v>
+        <v>-352400</v>
       </c>
       <c r="E33" s="3">
-        <v>262800</v>
+        <v>-338600</v>
       </c>
       <c r="F33" s="3">
-        <v>61300</v>
+        <v>268300</v>
       </c>
       <c r="G33" s="3">
-        <v>21700</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>62600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>22200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-331600</v>
+        <v>-352400</v>
       </c>
       <c r="E35" s="3">
-        <v>262800</v>
+        <v>-338600</v>
       </c>
       <c r="F35" s="3">
-        <v>61300</v>
+        <v>268300</v>
       </c>
       <c r="G35" s="3">
-        <v>21700</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>62600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>22200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>715600</v>
+        <v>425400</v>
       </c>
       <c r="E41" s="3">
-        <v>835600</v>
+        <v>730800</v>
       </c>
       <c r="F41" s="3">
-        <v>577200</v>
+        <v>853200</v>
       </c>
       <c r="G41" s="3">
-        <v>189200</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>589400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>193200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>72300</v>
+        <v>27800</v>
       </c>
       <c r="E43" s="3">
-        <v>74200</v>
+        <v>73800</v>
       </c>
       <c r="F43" s="3">
-        <v>62900</v>
+        <v>75700</v>
       </c>
       <c r="G43" s="3">
-        <v>44300</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>64300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>45200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,27 +1775,30 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>149900</v>
+        <v>103800</v>
       </c>
       <c r="E45" s="3">
-        <v>58700</v>
+        <v>153000</v>
       </c>
       <c r="F45" s="3">
         <v>59900</v>
       </c>
       <c r="G45" s="3">
+        <v>61100</v>
+      </c>
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,9 +1808,12 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,26 +1841,29 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>238800</v>
+        <v>172600</v>
       </c>
       <c r="E47" s="3">
-        <v>363900</v>
+        <v>243800</v>
       </c>
       <c r="F47" s="3">
-        <v>204100</v>
+        <v>371600</v>
       </c>
       <c r="G47" s="3">
-        <v>36200</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>208400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>36900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1770,27 +1874,30 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35500</v>
+        <v>14400</v>
       </c>
       <c r="E48" s="3">
-        <v>13200</v>
+        <v>36200</v>
       </c>
       <c r="F48" s="3">
-        <v>8400</v>
+        <v>13500</v>
       </c>
       <c r="G48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,27 +1907,30 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22300</v>
+        <v>10400</v>
       </c>
       <c r="E49" s="3">
-        <v>8900</v>
+        <v>22700</v>
       </c>
       <c r="F49" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="G49" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H49" s="3">
         <v>4400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,26 +2006,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98500</v>
+        <v>66100</v>
       </c>
       <c r="E52" s="3">
-        <v>12900</v>
+        <v>100600</v>
       </c>
       <c r="F52" s="3">
-        <v>17100</v>
+        <v>13200</v>
       </c>
       <c r="G52" s="3">
-        <v>30600</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>17400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>31300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1356700</v>
+        <v>840300</v>
       </c>
       <c r="E54" s="3">
-        <v>1391500</v>
+        <v>1385400</v>
       </c>
       <c r="F54" s="3">
-        <v>958800</v>
+        <v>1420900</v>
       </c>
       <c r="G54" s="3">
-        <v>329000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>979100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>336000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,25 +2138,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38000</v>
+        <v>23800</v>
       </c>
       <c r="E57" s="3">
+        <v>38800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>24300</v>
+      </c>
+      <c r="G57" s="3">
         <v>23800</v>
       </c>
-      <c r="F57" s="3">
-        <v>23300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>8100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>8200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2038,9 +2168,12 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2068,26 +2201,29 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>214000</v>
+        <v>136100</v>
       </c>
       <c r="E59" s="3">
-        <v>133900</v>
+        <v>218500</v>
       </c>
       <c r="F59" s="3">
-        <v>178200</v>
+        <v>136700</v>
       </c>
       <c r="G59" s="3">
-        <v>116800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>182000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>119300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,9 +2234,12 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,26 +2300,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="3">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>397200</v>
+        <v>190000</v>
       </c>
       <c r="E66" s="3">
-        <v>226300</v>
+        <v>405600</v>
       </c>
       <c r="F66" s="3">
-        <v>270000</v>
+        <v>231100</v>
       </c>
       <c r="G66" s="3">
-        <v>145400</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>275700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>148500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>211200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>125300</v>
+        <v>215700</v>
       </c>
       <c r="G70" s="3">
-        <v>32900</v>
+        <v>128000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>33600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,26 +2612,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>144700</v>
+        <v>-211600</v>
       </c>
       <c r="E72" s="3">
-        <v>476300</v>
+        <v>147800</v>
       </c>
       <c r="F72" s="3">
-        <v>176200</v>
+        <v>486400</v>
       </c>
       <c r="G72" s="3">
-        <v>108000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>179900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>110200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>959600</v>
+        <v>650300</v>
       </c>
       <c r="E76" s="3">
-        <v>954000</v>
+        <v>979900</v>
       </c>
       <c r="F76" s="3">
-        <v>563600</v>
+        <v>974200</v>
       </c>
       <c r="G76" s="3">
-        <v>150700</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>575400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>153900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-331600</v>
+        <v>-352400</v>
       </c>
       <c r="E81" s="3">
-        <v>262800</v>
+        <v>-338600</v>
       </c>
       <c r="F81" s="3">
-        <v>61300</v>
+        <v>268300</v>
       </c>
       <c r="G81" s="3">
-        <v>21700</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>62600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>22200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,25 +2899,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="E83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="F83" s="3">
-        <v>1800</v>
-      </c>
       <c r="G83" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>1900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1500</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-65500</v>
+        <v>-272200</v>
       </c>
       <c r="E89" s="3">
-        <v>358400</v>
+        <v>-66900</v>
       </c>
       <c r="F89" s="3">
-        <v>437800</v>
+        <v>366000</v>
       </c>
       <c r="G89" s="3">
-        <v>63200</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>447100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>64600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,26 +3145,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8700</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-7400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-108100</v>
+        <v>6200</v>
       </c>
       <c r="E94" s="3">
-        <v>-189000</v>
+        <v>-110400</v>
       </c>
       <c r="F94" s="3">
-        <v>-154600</v>
+        <v>-193000</v>
       </c>
       <c r="G94" s="3">
-        <v>-34100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-157800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-34800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,27 +3421,30 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>72100</v>
+        <v>2000</v>
       </c>
       <c r="E100" s="3">
-        <v>83400</v>
+        <v>73600</v>
       </c>
       <c r="F100" s="3">
-        <v>86100</v>
+        <v>85200</v>
       </c>
       <c r="G100" s="3">
+        <v>87900</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,26 +3454,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
-        <v>5400</v>
-      </c>
       <c r="F101" s="3">
-        <v>-3500</v>
+        <v>5500</v>
       </c>
       <c r="G101" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>-3600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2000</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100800</v>
+        <v>-264000</v>
       </c>
       <c r="E102" s="3">
-        <v>258200</v>
+        <v>-102900</v>
       </c>
       <c r="F102" s="3">
-        <v>365800</v>
+        <v>263700</v>
       </c>
       <c r="G102" s="3">
-        <v>31200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>373500</v>
+      </c>
+      <c r="H102" s="3">
+        <v>31900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>195900</v>
+        <v>193400</v>
       </c>
       <c r="E8" s="3">
-        <v>690300</v>
+        <v>681400</v>
       </c>
       <c r="F8" s="3">
-        <v>866900</v>
+        <v>855600</v>
       </c>
       <c r="G8" s="3">
-        <v>1051800</v>
+        <v>1038100</v>
       </c>
       <c r="H8" s="3">
-        <v>352700</v>
+        <v>348100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>84800</v>
+        <v>83700</v>
       </c>
       <c r="E9" s="3">
-        <v>177500</v>
+        <v>175100</v>
       </c>
       <c r="F9" s="3">
-        <v>69400</v>
+        <v>68500</v>
       </c>
       <c r="G9" s="3">
-        <v>78300</v>
+        <v>77300</v>
       </c>
       <c r="H9" s="3">
-        <v>26200</v>
+        <v>25900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>111200</v>
+        <v>109700</v>
       </c>
       <c r="E10" s="3">
-        <v>512900</v>
+        <v>506200</v>
       </c>
       <c r="F10" s="3">
-        <v>797500</v>
+        <v>787100</v>
       </c>
       <c r="G10" s="3">
-        <v>973500</v>
+        <v>960800</v>
       </c>
       <c r="H10" s="3">
-        <v>326500</v>
+        <v>322200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>85900</v>
+        <v>84800</v>
       </c>
       <c r="E14" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="F14" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G14" s="3">
         <v>1300</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>481900</v>
+        <v>475700</v>
       </c>
       <c r="E17" s="3">
-        <v>1082700</v>
+        <v>1068600</v>
       </c>
       <c r="F17" s="3">
-        <v>526000</v>
+        <v>519200</v>
       </c>
       <c r="G17" s="3">
-        <v>909400</v>
+        <v>897600</v>
       </c>
       <c r="H17" s="3">
-        <v>290800</v>
+        <v>287000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-286000</v>
+        <v>-282300</v>
       </c>
       <c r="E18" s="3">
-        <v>-392400</v>
+        <v>-387300</v>
       </c>
       <c r="F18" s="3">
-        <v>340800</v>
+        <v>336400</v>
       </c>
       <c r="G18" s="3">
-        <v>142300</v>
+        <v>140500</v>
       </c>
       <c r="H18" s="3">
-        <v>61900</v>
+        <v>61100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="E20" s="3">
-        <v>46000</v>
+        <v>45400</v>
       </c>
       <c r="F20" s="3">
-        <v>36500</v>
+        <v>36000</v>
       </c>
       <c r="G20" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="H20" s="3">
         <v>3300</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-260100</v>
+        <v>-256700</v>
       </c>
       <c r="E21" s="3">
-        <v>-340600</v>
+        <v>-336100</v>
       </c>
       <c r="F21" s="3">
-        <v>380300</v>
+        <v>375300</v>
       </c>
       <c r="G21" s="3">
-        <v>159700</v>
+        <v>157600</v>
       </c>
       <c r="H21" s="3">
-        <v>66600</v>
+        <v>65800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-263900</v>
+        <v>-260500</v>
       </c>
       <c r="E23" s="3">
-        <v>-346400</v>
+        <v>-341900</v>
       </c>
       <c r="F23" s="3">
-        <v>377300</v>
+        <v>372400</v>
       </c>
       <c r="G23" s="3">
-        <v>157800</v>
+        <v>155700</v>
       </c>
       <c r="H23" s="3">
-        <v>65200</v>
+        <v>64300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>84000</v>
+        <v>82900</v>
       </c>
       <c r="E24" s="3">
-        <v>-27200</v>
+        <v>-26900</v>
       </c>
       <c r="F24" s="3">
-        <v>62800</v>
+        <v>62000</v>
       </c>
       <c r="G24" s="3">
-        <v>55000</v>
+        <v>54300</v>
       </c>
       <c r="H24" s="3">
-        <v>42300</v>
+        <v>41700</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-347900</v>
+        <v>-343400</v>
       </c>
       <c r="E26" s="3">
-        <v>-319200</v>
+        <v>-315000</v>
       </c>
       <c r="F26" s="3">
-        <v>314600</v>
+        <v>310500</v>
       </c>
       <c r="G26" s="3">
-        <v>102800</v>
+        <v>101500</v>
       </c>
       <c r="H26" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-352400</v>
+        <v>-347800</v>
       </c>
       <c r="E27" s="3">
-        <v>-338600</v>
+        <v>-334200</v>
       </c>
       <c r="F27" s="3">
-        <v>268300</v>
+        <v>264800</v>
       </c>
       <c r="G27" s="3">
-        <v>62600</v>
+        <v>61800</v>
       </c>
       <c r="H27" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22100</v>
+        <v>-21800</v>
       </c>
       <c r="E32" s="3">
-        <v>-46000</v>
+        <v>-45400</v>
       </c>
       <c r="F32" s="3">
-        <v>-36500</v>
+        <v>-36000</v>
       </c>
       <c r="G32" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="H32" s="3">
         <v>-3300</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-352400</v>
+        <v>-347800</v>
       </c>
       <c r="E33" s="3">
-        <v>-338600</v>
+        <v>-334200</v>
       </c>
       <c r="F33" s="3">
-        <v>268300</v>
+        <v>264800</v>
       </c>
       <c r="G33" s="3">
-        <v>62600</v>
+        <v>61800</v>
       </c>
       <c r="H33" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-352400</v>
+        <v>-347800</v>
       </c>
       <c r="E35" s="3">
-        <v>-338600</v>
+        <v>-334200</v>
       </c>
       <c r="F35" s="3">
-        <v>268300</v>
+        <v>264800</v>
       </c>
       <c r="G35" s="3">
-        <v>62600</v>
+        <v>61800</v>
       </c>
       <c r="H35" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>425400</v>
+        <v>419900</v>
       </c>
       <c r="E41" s="3">
-        <v>730800</v>
+        <v>721200</v>
       </c>
       <c r="F41" s="3">
-        <v>853200</v>
+        <v>842100</v>
       </c>
       <c r="G41" s="3">
-        <v>589400</v>
+        <v>581800</v>
       </c>
       <c r="H41" s="3">
-        <v>193200</v>
+        <v>190700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27800</v>
+        <v>27400</v>
       </c>
       <c r="E43" s="3">
-        <v>73800</v>
+        <v>72900</v>
       </c>
       <c r="F43" s="3">
-        <v>75700</v>
+        <v>74800</v>
       </c>
       <c r="G43" s="3">
-        <v>64300</v>
+        <v>63400</v>
       </c>
       <c r="H43" s="3">
-        <v>45200</v>
+        <v>44600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103800</v>
+        <v>102400</v>
       </c>
       <c r="E45" s="3">
-        <v>153000</v>
+        <v>151000</v>
       </c>
       <c r="F45" s="3">
-        <v>59900</v>
+        <v>59100</v>
       </c>
       <c r="G45" s="3">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="H45" s="3">
         <v>1700</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>172600</v>
+        <v>170400</v>
       </c>
       <c r="E47" s="3">
-        <v>243800</v>
+        <v>240700</v>
       </c>
       <c r="F47" s="3">
-        <v>371600</v>
+        <v>366700</v>
       </c>
       <c r="G47" s="3">
-        <v>208400</v>
+        <v>205700</v>
       </c>
       <c r="H47" s="3">
-        <v>36900</v>
+        <v>36500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="E48" s="3">
-        <v>36200</v>
+        <v>35700</v>
       </c>
       <c r="F48" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="G48" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="H48" s="3">
         <v>3100</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="E49" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="F49" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G49" s="3">
         <v>9100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>9200</v>
       </c>
       <c r="H49" s="3">
         <v>4400</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66100</v>
+        <v>65300</v>
       </c>
       <c r="E52" s="3">
-        <v>100600</v>
+        <v>99300</v>
       </c>
       <c r="F52" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="G52" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="H52" s="3">
-        <v>31300</v>
+        <v>30900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>840300</v>
+        <v>829400</v>
       </c>
       <c r="E54" s="3">
-        <v>1385400</v>
+        <v>1367400</v>
       </c>
       <c r="F54" s="3">
-        <v>1420900</v>
+        <v>1402400</v>
       </c>
       <c r="G54" s="3">
-        <v>979100</v>
+        <v>966300</v>
       </c>
       <c r="H54" s="3">
-        <v>336000</v>
+        <v>331600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="E57" s="3">
-        <v>38800</v>
+        <v>38300</v>
       </c>
       <c r="F57" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="G57" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="H57" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>136100</v>
+        <v>134300</v>
       </c>
       <c r="E59" s="3">
-        <v>218500</v>
+        <v>215700</v>
       </c>
       <c r="F59" s="3">
-        <v>136700</v>
+        <v>134900</v>
       </c>
       <c r="G59" s="3">
-        <v>182000</v>
+        <v>179600</v>
       </c>
       <c r="H59" s="3">
-        <v>119300</v>
+        <v>117700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2319,7 +2319,7 @@
         <v>1400</v>
       </c>
       <c r="G62" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>190000</v>
+        <v>187500</v>
       </c>
       <c r="E66" s="3">
-        <v>405600</v>
+        <v>400300</v>
       </c>
       <c r="F66" s="3">
-        <v>231100</v>
+        <v>228100</v>
       </c>
       <c r="G66" s="3">
-        <v>275700</v>
+        <v>272100</v>
       </c>
       <c r="H66" s="3">
-        <v>148500</v>
+        <v>146500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>215700</v>
+        <v>212900</v>
       </c>
       <c r="G70" s="3">
-        <v>128000</v>
+        <v>126300</v>
       </c>
       <c r="H70" s="3">
-        <v>33600</v>
+        <v>33200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-211600</v>
+        <v>-208900</v>
       </c>
       <c r="E72" s="3">
-        <v>147800</v>
+        <v>145900</v>
       </c>
       <c r="F72" s="3">
-        <v>486400</v>
+        <v>480000</v>
       </c>
       <c r="G72" s="3">
-        <v>179900</v>
+        <v>177500</v>
       </c>
       <c r="H72" s="3">
-        <v>110200</v>
+        <v>108800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>650300</v>
+        <v>641900</v>
       </c>
       <c r="E76" s="3">
-        <v>979900</v>
+        <v>967100</v>
       </c>
       <c r="F76" s="3">
-        <v>974200</v>
+        <v>961500</v>
       </c>
       <c r="G76" s="3">
-        <v>575400</v>
+        <v>568000</v>
       </c>
       <c r="H76" s="3">
-        <v>153900</v>
+        <v>151900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-352400</v>
+        <v>-347800</v>
       </c>
       <c r="E81" s="3">
-        <v>-338600</v>
+        <v>-334200</v>
       </c>
       <c r="F81" s="3">
-        <v>268300</v>
+        <v>264800</v>
       </c>
       <c r="G81" s="3">
-        <v>62600</v>
+        <v>61800</v>
       </c>
       <c r="H81" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E83" s="3">
         <v>5800</v>
@@ -2915,10 +2915,10 @@
         <v>2900</v>
       </c>
       <c r="G83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H83" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-272200</v>
+        <v>-268600</v>
       </c>
       <c r="E89" s="3">
-        <v>-66900</v>
+        <v>-66100</v>
       </c>
       <c r="F89" s="3">
-        <v>366000</v>
+        <v>361200</v>
       </c>
       <c r="G89" s="3">
-        <v>447100</v>
+        <v>441200</v>
       </c>
       <c r="H89" s="3">
-        <v>64600</v>
+        <v>63700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="F91" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="G91" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="H91" s="3">
         <v>-3100</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E94" s="3">
-        <v>-110400</v>
+        <v>-109000</v>
       </c>
       <c r="F94" s="3">
-        <v>-193000</v>
+        <v>-190400</v>
       </c>
       <c r="G94" s="3">
-        <v>-157800</v>
+        <v>-155800</v>
       </c>
       <c r="H94" s="3">
-        <v>-34800</v>
+        <v>-34300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3434,13 +3434,13 @@
         <v>2000</v>
       </c>
       <c r="E100" s="3">
-        <v>73600</v>
+        <v>72700</v>
       </c>
       <c r="F100" s="3">
-        <v>85200</v>
+        <v>84100</v>
       </c>
       <c r="G100" s="3">
-        <v>87900</v>
+        <v>86700</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -3470,7 +3470,7 @@
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G101" s="3">
         <v>-3600</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-264000</v>
+        <v>-260500</v>
       </c>
       <c r="E102" s="3">
-        <v>-102900</v>
+        <v>-101600</v>
       </c>
       <c r="F102" s="3">
-        <v>263700</v>
+        <v>260300</v>
       </c>
       <c r="G102" s="3">
-        <v>373500</v>
+        <v>368700</v>
       </c>
       <c r="H102" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>193400</v>
+        <v>196600</v>
       </c>
       <c r="E8" s="3">
-        <v>681400</v>
+        <v>692800</v>
       </c>
       <c r="F8" s="3">
-        <v>855600</v>
+        <v>869900</v>
       </c>
       <c r="G8" s="3">
-        <v>1038100</v>
+        <v>1055500</v>
       </c>
       <c r="H8" s="3">
-        <v>348100</v>
+        <v>353900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>83700</v>
+        <v>85100</v>
       </c>
       <c r="E9" s="3">
-        <v>175100</v>
+        <v>178100</v>
       </c>
       <c r="F9" s="3">
-        <v>68500</v>
+        <v>69600</v>
       </c>
       <c r="G9" s="3">
-        <v>77300</v>
+        <v>78600</v>
       </c>
       <c r="H9" s="3">
-        <v>25900</v>
+        <v>26300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>109700</v>
+        <v>111600</v>
       </c>
       <c r="E10" s="3">
-        <v>506200</v>
+        <v>514700</v>
       </c>
       <c r="F10" s="3">
-        <v>787100</v>
+        <v>800300</v>
       </c>
       <c r="G10" s="3">
-        <v>960800</v>
+        <v>976900</v>
       </c>
       <c r="H10" s="3">
-        <v>322200</v>
+        <v>327600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>84800</v>
+        <v>86300</v>
       </c>
       <c r="E14" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="F14" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G14" s="3">
         <v>1300</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>475700</v>
+        <v>483600</v>
       </c>
       <c r="E17" s="3">
-        <v>1068600</v>
+        <v>1086600</v>
       </c>
       <c r="F17" s="3">
-        <v>519200</v>
+        <v>527900</v>
       </c>
       <c r="G17" s="3">
-        <v>897600</v>
+        <v>912600</v>
       </c>
       <c r="H17" s="3">
-        <v>287000</v>
+        <v>291800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-282300</v>
+        <v>-287000</v>
       </c>
       <c r="E18" s="3">
-        <v>-387300</v>
+        <v>-393800</v>
       </c>
       <c r="F18" s="3">
-        <v>336400</v>
+        <v>342000</v>
       </c>
       <c r="G18" s="3">
-        <v>140500</v>
+        <v>142800</v>
       </c>
       <c r="H18" s="3">
-        <v>61100</v>
+        <v>62100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="E20" s="3">
-        <v>45400</v>
+        <v>46200</v>
       </c>
       <c r="F20" s="3">
-        <v>36000</v>
+        <v>36600</v>
       </c>
       <c r="G20" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="H20" s="3">
         <v>3300</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-256700</v>
+        <v>-261000</v>
       </c>
       <c r="E21" s="3">
-        <v>-336100</v>
+        <v>-341800</v>
       </c>
       <c r="F21" s="3">
-        <v>375300</v>
+        <v>381600</v>
       </c>
       <c r="G21" s="3">
-        <v>157600</v>
+        <v>160200</v>
       </c>
       <c r="H21" s="3">
-        <v>65800</v>
+        <v>66900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-260500</v>
+        <v>-264800</v>
       </c>
       <c r="E23" s="3">
-        <v>-341900</v>
+        <v>-347600</v>
       </c>
       <c r="F23" s="3">
-        <v>372400</v>
+        <v>378700</v>
       </c>
       <c r="G23" s="3">
-        <v>155700</v>
+        <v>158400</v>
       </c>
       <c r="H23" s="3">
-        <v>64300</v>
+        <v>65400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>82900</v>
+        <v>84300</v>
       </c>
       <c r="E24" s="3">
-        <v>-26900</v>
+        <v>-27300</v>
       </c>
       <c r="F24" s="3">
-        <v>62000</v>
+        <v>63000</v>
       </c>
       <c r="G24" s="3">
-        <v>54300</v>
+        <v>55200</v>
       </c>
       <c r="H24" s="3">
-        <v>41700</v>
+        <v>42400</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-343400</v>
+        <v>-349100</v>
       </c>
       <c r="E26" s="3">
-        <v>-315000</v>
+        <v>-320300</v>
       </c>
       <c r="F26" s="3">
-        <v>310500</v>
+        <v>315700</v>
       </c>
       <c r="G26" s="3">
-        <v>101500</v>
+        <v>103200</v>
       </c>
       <c r="H26" s="3">
-        <v>22600</v>
+        <v>22900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-347800</v>
+        <v>-353700</v>
       </c>
       <c r="E27" s="3">
-        <v>-334200</v>
+        <v>-339800</v>
       </c>
       <c r="F27" s="3">
-        <v>264800</v>
+        <v>269300</v>
       </c>
       <c r="G27" s="3">
-        <v>61800</v>
+        <v>62800</v>
       </c>
       <c r="H27" s="3">
-        <v>21900</v>
+        <v>22300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21800</v>
+        <v>-22200</v>
       </c>
       <c r="E32" s="3">
-        <v>-45400</v>
+        <v>-46200</v>
       </c>
       <c r="F32" s="3">
-        <v>-36000</v>
+        <v>-36600</v>
       </c>
       <c r="G32" s="3">
-        <v>-15300</v>
+        <v>-15500</v>
       </c>
       <c r="H32" s="3">
         <v>-3300</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-347800</v>
+        <v>-353700</v>
       </c>
       <c r="E33" s="3">
-        <v>-334200</v>
+        <v>-339800</v>
       </c>
       <c r="F33" s="3">
-        <v>264800</v>
+        <v>269300</v>
       </c>
       <c r="G33" s="3">
-        <v>61800</v>
+        <v>62800</v>
       </c>
       <c r="H33" s="3">
-        <v>21900</v>
+        <v>22300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-347800</v>
+        <v>-353700</v>
       </c>
       <c r="E35" s="3">
-        <v>-334200</v>
+        <v>-339800</v>
       </c>
       <c r="F35" s="3">
-        <v>264800</v>
+        <v>269300</v>
       </c>
       <c r="G35" s="3">
-        <v>61800</v>
+        <v>62800</v>
       </c>
       <c r="H35" s="3">
-        <v>21900</v>
+        <v>22300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>419900</v>
+        <v>426900</v>
       </c>
       <c r="E41" s="3">
-        <v>721200</v>
+        <v>733300</v>
       </c>
       <c r="F41" s="3">
-        <v>842100</v>
+        <v>856200</v>
       </c>
       <c r="G41" s="3">
-        <v>581800</v>
+        <v>591500</v>
       </c>
       <c r="H41" s="3">
-        <v>190700</v>
+        <v>193900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27400</v>
+        <v>27900</v>
       </c>
       <c r="E43" s="3">
-        <v>72900</v>
+        <v>74100</v>
       </c>
       <c r="F43" s="3">
-        <v>74800</v>
+        <v>76000</v>
       </c>
       <c r="G43" s="3">
-        <v>63400</v>
+        <v>64500</v>
       </c>
       <c r="H43" s="3">
-        <v>44600</v>
+        <v>45400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>102400</v>
+        <v>104200</v>
       </c>
       <c r="E45" s="3">
-        <v>151000</v>
+        <v>153600</v>
       </c>
       <c r="F45" s="3">
-        <v>59100</v>
+        <v>60100</v>
       </c>
       <c r="G45" s="3">
-        <v>60300</v>
+        <v>61400</v>
       </c>
       <c r="H45" s="3">
         <v>1700</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>170400</v>
+        <v>173200</v>
       </c>
       <c r="E47" s="3">
-        <v>240700</v>
+        <v>244700</v>
       </c>
       <c r="F47" s="3">
-        <v>366700</v>
+        <v>372900</v>
       </c>
       <c r="G47" s="3">
-        <v>205700</v>
+        <v>209200</v>
       </c>
       <c r="H47" s="3">
-        <v>36500</v>
+        <v>37100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="E48" s="3">
-        <v>35700</v>
+        <v>36300</v>
       </c>
       <c r="F48" s="3">
-        <v>13300</v>
+        <v>13500</v>
       </c>
       <c r="G48" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="H48" s="3">
         <v>3100</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="E49" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="F49" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="G49" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="H49" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65300</v>
+        <v>66300</v>
       </c>
       <c r="E52" s="3">
-        <v>99300</v>
+        <v>100900</v>
       </c>
       <c r="F52" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="G52" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="H52" s="3">
-        <v>30900</v>
+        <v>31400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>829400</v>
+        <v>843300</v>
       </c>
       <c r="E54" s="3">
-        <v>1367400</v>
+        <v>1390300</v>
       </c>
       <c r="F54" s="3">
-        <v>1402400</v>
+        <v>1425900</v>
       </c>
       <c r="G54" s="3">
-        <v>966300</v>
+        <v>982500</v>
       </c>
       <c r="H54" s="3">
-        <v>331600</v>
+        <v>337200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23500</v>
+        <v>23900</v>
       </c>
       <c r="E57" s="3">
-        <v>38300</v>
+        <v>39000</v>
       </c>
       <c r="F57" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="G57" s="3">
-        <v>23500</v>
+        <v>23900</v>
       </c>
       <c r="H57" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>134300</v>
+        <v>136600</v>
       </c>
       <c r="E59" s="3">
-        <v>215700</v>
+        <v>219300</v>
       </c>
       <c r="F59" s="3">
-        <v>134900</v>
+        <v>137200</v>
       </c>
       <c r="G59" s="3">
-        <v>179600</v>
+        <v>182600</v>
       </c>
       <c r="H59" s="3">
-        <v>117700</v>
+        <v>119700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E62" s="3">
         <v>2700</v>
@@ -2319,7 +2319,7 @@
         <v>1400</v>
       </c>
       <c r="G62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>187500</v>
+        <v>190700</v>
       </c>
       <c r="E66" s="3">
-        <v>400300</v>
+        <v>407000</v>
       </c>
       <c r="F66" s="3">
-        <v>228100</v>
+        <v>231900</v>
       </c>
       <c r="G66" s="3">
-        <v>272100</v>
+        <v>276600</v>
       </c>
       <c r="H66" s="3">
-        <v>146500</v>
+        <v>149000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>212900</v>
+        <v>216400</v>
       </c>
       <c r="G70" s="3">
-        <v>126300</v>
+        <v>128400</v>
       </c>
       <c r="H70" s="3">
-        <v>33200</v>
+        <v>33700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-208900</v>
+        <v>-212400</v>
       </c>
       <c r="E72" s="3">
-        <v>145900</v>
+        <v>148300</v>
       </c>
       <c r="F72" s="3">
-        <v>480000</v>
+        <v>488100</v>
       </c>
       <c r="G72" s="3">
-        <v>177500</v>
+        <v>180500</v>
       </c>
       <c r="H72" s="3">
-        <v>108800</v>
+        <v>110600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>641900</v>
+        <v>652600</v>
       </c>
       <c r="E76" s="3">
-        <v>967100</v>
+        <v>983300</v>
       </c>
       <c r="F76" s="3">
-        <v>961500</v>
+        <v>977700</v>
       </c>
       <c r="G76" s="3">
-        <v>568000</v>
+        <v>577500</v>
       </c>
       <c r="H76" s="3">
-        <v>151900</v>
+        <v>154500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-347800</v>
+        <v>-353700</v>
       </c>
       <c r="E81" s="3">
-        <v>-334200</v>
+        <v>-339800</v>
       </c>
       <c r="F81" s="3">
-        <v>264800</v>
+        <v>269300</v>
       </c>
       <c r="G81" s="3">
-        <v>61800</v>
+        <v>62800</v>
       </c>
       <c r="H81" s="3">
-        <v>21900</v>
+        <v>22300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E83" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F83" s="3">
         <v>2900</v>
       </c>
       <c r="G83" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-268600</v>
+        <v>-273100</v>
       </c>
       <c r="E89" s="3">
-        <v>-66100</v>
+        <v>-67200</v>
       </c>
       <c r="F89" s="3">
-        <v>361200</v>
+        <v>367300</v>
       </c>
       <c r="G89" s="3">
-        <v>441200</v>
+        <v>448600</v>
       </c>
       <c r="H89" s="3">
-        <v>63700</v>
+        <v>64800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="F91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-7500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-7300</v>
       </c>
       <c r="H91" s="3">
         <v>-3100</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E94" s="3">
-        <v>-109000</v>
+        <v>-110800</v>
       </c>
       <c r="F94" s="3">
-        <v>-190400</v>
+        <v>-193600</v>
       </c>
       <c r="G94" s="3">
-        <v>-155800</v>
+        <v>-158400</v>
       </c>
       <c r="H94" s="3">
-        <v>-34300</v>
+        <v>-34900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3434,13 +3434,13 @@
         <v>2000</v>
       </c>
       <c r="E100" s="3">
-        <v>72700</v>
+        <v>73900</v>
       </c>
       <c r="F100" s="3">
-        <v>84100</v>
+        <v>85500</v>
       </c>
       <c r="G100" s="3">
-        <v>86700</v>
+        <v>88200</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -3470,7 +3470,7 @@
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G101" s="3">
         <v>-3600</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-260500</v>
+        <v>-264900</v>
       </c>
       <c r="E102" s="3">
-        <v>-101600</v>
+        <v>-103300</v>
       </c>
       <c r="F102" s="3">
-        <v>260300</v>
+        <v>264600</v>
       </c>
       <c r="G102" s="3">
-        <v>368700</v>
+        <v>374800</v>
       </c>
       <c r="H102" s="3">
-        <v>31500</v>
+        <v>32000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>196600</v>
+        <v>198100</v>
       </c>
       <c r="E8" s="3">
-        <v>692800</v>
+        <v>698100</v>
       </c>
       <c r="F8" s="3">
-        <v>869900</v>
+        <v>876600</v>
       </c>
       <c r="G8" s="3">
-        <v>1055500</v>
+        <v>1063600</v>
       </c>
       <c r="H8" s="3">
-        <v>353900</v>
+        <v>356600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>85100</v>
+        <v>85700</v>
       </c>
       <c r="E9" s="3">
-        <v>178100</v>
+        <v>179400</v>
       </c>
       <c r="F9" s="3">
-        <v>69600</v>
+        <v>70200</v>
       </c>
       <c r="G9" s="3">
-        <v>78600</v>
+        <v>79200</v>
       </c>
       <c r="H9" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>111600</v>
+        <v>112400</v>
       </c>
       <c r="E10" s="3">
-        <v>514700</v>
+        <v>518600</v>
       </c>
       <c r="F10" s="3">
-        <v>800300</v>
+        <v>806400</v>
       </c>
       <c r="G10" s="3">
-        <v>976900</v>
+        <v>984400</v>
       </c>
       <c r="H10" s="3">
-        <v>327600</v>
+        <v>330100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>86300</v>
+        <v>86900</v>
       </c>
       <c r="E14" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="F14" s="3">
         <v>3700</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>483600</v>
+        <v>487300</v>
       </c>
       <c r="E17" s="3">
-        <v>1086600</v>
+        <v>1094900</v>
       </c>
       <c r="F17" s="3">
-        <v>527900</v>
+        <v>531900</v>
       </c>
       <c r="G17" s="3">
-        <v>912600</v>
+        <v>919600</v>
       </c>
       <c r="H17" s="3">
-        <v>291800</v>
+        <v>294100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-287000</v>
+        <v>-289200</v>
       </c>
       <c r="E18" s="3">
-        <v>-393800</v>
+        <v>-396800</v>
       </c>
       <c r="F18" s="3">
-        <v>342000</v>
+        <v>344700</v>
       </c>
       <c r="G18" s="3">
-        <v>142800</v>
+        <v>143900</v>
       </c>
       <c r="H18" s="3">
-        <v>62100</v>
+        <v>62600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="E20" s="3">
-        <v>46200</v>
+        <v>46500</v>
       </c>
       <c r="F20" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="G20" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="H20" s="3">
         <v>3300</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-261000</v>
+        <v>-263000</v>
       </c>
       <c r="E21" s="3">
-        <v>-341800</v>
+        <v>-344300</v>
       </c>
       <c r="F21" s="3">
-        <v>381600</v>
+        <v>384500</v>
       </c>
       <c r="G21" s="3">
-        <v>160200</v>
+        <v>161500</v>
       </c>
       <c r="H21" s="3">
-        <v>66900</v>
+        <v>67400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-264800</v>
+        <v>-266900</v>
       </c>
       <c r="E23" s="3">
-        <v>-347600</v>
+        <v>-350300</v>
       </c>
       <c r="F23" s="3">
-        <v>378700</v>
+        <v>381600</v>
       </c>
       <c r="G23" s="3">
-        <v>158400</v>
+        <v>159600</v>
       </c>
       <c r="H23" s="3">
-        <v>65400</v>
+        <v>65900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>84300</v>
+        <v>84900</v>
       </c>
       <c r="E24" s="3">
-        <v>-27300</v>
+        <v>-27500</v>
       </c>
       <c r="F24" s="3">
-        <v>63000</v>
+        <v>63500</v>
       </c>
       <c r="G24" s="3">
-        <v>55200</v>
+        <v>55600</v>
       </c>
       <c r="H24" s="3">
-        <v>42400</v>
+        <v>42800</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-349100</v>
+        <v>-351800</v>
       </c>
       <c r="E26" s="3">
-        <v>-320300</v>
+        <v>-322700</v>
       </c>
       <c r="F26" s="3">
-        <v>315700</v>
+        <v>318100</v>
       </c>
       <c r="G26" s="3">
-        <v>103200</v>
+        <v>104000</v>
       </c>
       <c r="H26" s="3">
-        <v>22900</v>
+        <v>23100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-353700</v>
+        <v>-356400</v>
       </c>
       <c r="E27" s="3">
-        <v>-339800</v>
+        <v>-342400</v>
       </c>
       <c r="F27" s="3">
-        <v>269300</v>
+        <v>271300</v>
       </c>
       <c r="G27" s="3">
-        <v>62800</v>
+        <v>63300</v>
       </c>
       <c r="H27" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22200</v>
+        <v>-22300</v>
       </c>
       <c r="E32" s="3">
-        <v>-46200</v>
+        <v>-46500</v>
       </c>
       <c r="F32" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="G32" s="3">
-        <v>-15500</v>
+        <v>-15600</v>
       </c>
       <c r="H32" s="3">
         <v>-3300</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-353700</v>
+        <v>-356400</v>
       </c>
       <c r="E33" s="3">
-        <v>-339800</v>
+        <v>-342400</v>
       </c>
       <c r="F33" s="3">
-        <v>269300</v>
+        <v>271300</v>
       </c>
       <c r="G33" s="3">
-        <v>62800</v>
+        <v>63300</v>
       </c>
       <c r="H33" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-353700</v>
+        <v>-356400</v>
       </c>
       <c r="E35" s="3">
-        <v>-339800</v>
+        <v>-342400</v>
       </c>
       <c r="F35" s="3">
-        <v>269300</v>
+        <v>271300</v>
       </c>
       <c r="G35" s="3">
-        <v>62800</v>
+        <v>63300</v>
       </c>
       <c r="H35" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>426900</v>
+        <v>430200</v>
       </c>
       <c r="E41" s="3">
-        <v>733300</v>
+        <v>738900</v>
       </c>
       <c r="F41" s="3">
-        <v>856200</v>
+        <v>862800</v>
       </c>
       <c r="G41" s="3">
-        <v>591500</v>
+        <v>596000</v>
       </c>
       <c r="H41" s="3">
-        <v>193900</v>
+        <v>195400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27900</v>
+        <v>28100</v>
       </c>
       <c r="E43" s="3">
-        <v>74100</v>
+        <v>74600</v>
       </c>
       <c r="F43" s="3">
-        <v>76000</v>
+        <v>76600</v>
       </c>
       <c r="G43" s="3">
-        <v>64500</v>
+        <v>65000</v>
       </c>
       <c r="H43" s="3">
-        <v>45400</v>
+        <v>45700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>104200</v>
+        <v>105000</v>
       </c>
       <c r="E45" s="3">
-        <v>153600</v>
+        <v>154800</v>
       </c>
       <c r="F45" s="3">
-        <v>60100</v>
+        <v>60600</v>
       </c>
       <c r="G45" s="3">
-        <v>61400</v>
+        <v>61800</v>
       </c>
       <c r="H45" s="3">
         <v>1700</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>173200</v>
+        <v>174500</v>
       </c>
       <c r="E47" s="3">
-        <v>244700</v>
+        <v>246600</v>
       </c>
       <c r="F47" s="3">
-        <v>372900</v>
+        <v>375700</v>
       </c>
       <c r="G47" s="3">
-        <v>209200</v>
+        <v>210800</v>
       </c>
       <c r="H47" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="E48" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="F48" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="G48" s="3">
         <v>8600</v>
       </c>
       <c r="H48" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="E49" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="F49" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="G49" s="3">
         <v>9300</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66300</v>
+        <v>66900</v>
       </c>
       <c r="E52" s="3">
-        <v>100900</v>
+        <v>101700</v>
       </c>
       <c r="F52" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="G52" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="H52" s="3">
-        <v>31400</v>
+        <v>31600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>843300</v>
+        <v>849800</v>
       </c>
       <c r="E54" s="3">
-        <v>1390300</v>
+        <v>1401000</v>
       </c>
       <c r="F54" s="3">
-        <v>1425900</v>
+        <v>1436900</v>
       </c>
       <c r="G54" s="3">
-        <v>982500</v>
+        <v>990100</v>
       </c>
       <c r="H54" s="3">
-        <v>337200</v>
+        <v>339800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="E57" s="3">
-        <v>39000</v>
+        <v>39300</v>
       </c>
       <c r="F57" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="G57" s="3">
-        <v>23900</v>
+        <v>24100</v>
       </c>
       <c r="H57" s="3">
         <v>8300</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>136600</v>
+        <v>137600</v>
       </c>
       <c r="E59" s="3">
-        <v>219300</v>
+        <v>221000</v>
       </c>
       <c r="F59" s="3">
-        <v>137200</v>
+        <v>138300</v>
       </c>
       <c r="G59" s="3">
-        <v>182600</v>
+        <v>184000</v>
       </c>
       <c r="H59" s="3">
-        <v>119700</v>
+        <v>120600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>190700</v>
+        <v>192100</v>
       </c>
       <c r="E66" s="3">
-        <v>407000</v>
+        <v>410100</v>
       </c>
       <c r="F66" s="3">
-        <v>231900</v>
+        <v>233700</v>
       </c>
       <c r="G66" s="3">
-        <v>276600</v>
+        <v>278800</v>
       </c>
       <c r="H66" s="3">
-        <v>149000</v>
+        <v>150100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>216400</v>
+        <v>218100</v>
       </c>
       <c r="G70" s="3">
-        <v>128400</v>
+        <v>129400</v>
       </c>
       <c r="H70" s="3">
-        <v>33700</v>
+        <v>34000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-212400</v>
+        <v>-214000</v>
       </c>
       <c r="E72" s="3">
-        <v>148300</v>
+        <v>149400</v>
       </c>
       <c r="F72" s="3">
-        <v>488100</v>
+        <v>491800</v>
       </c>
       <c r="G72" s="3">
-        <v>180500</v>
+        <v>181900</v>
       </c>
       <c r="H72" s="3">
-        <v>110600</v>
+        <v>111500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>652600</v>
+        <v>657600</v>
       </c>
       <c r="E76" s="3">
-        <v>983300</v>
+        <v>990900</v>
       </c>
       <c r="F76" s="3">
-        <v>977700</v>
+        <v>985100</v>
       </c>
       <c r="G76" s="3">
-        <v>577500</v>
+        <v>581900</v>
       </c>
       <c r="H76" s="3">
-        <v>154500</v>
+        <v>155600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-353700</v>
+        <v>-356400</v>
       </c>
       <c r="E81" s="3">
-        <v>-339800</v>
+        <v>-342400</v>
       </c>
       <c r="F81" s="3">
-        <v>269300</v>
+        <v>271300</v>
       </c>
       <c r="G81" s="3">
-        <v>62800</v>
+        <v>63300</v>
       </c>
       <c r="H81" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2912,7 +2912,7 @@
         <v>5900</v>
       </c>
       <c r="F83" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G83" s="3">
         <v>1900</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-273100</v>
+        <v>-275200</v>
       </c>
       <c r="E89" s="3">
-        <v>-67200</v>
+        <v>-67700</v>
       </c>
       <c r="F89" s="3">
-        <v>367300</v>
+        <v>370100</v>
       </c>
       <c r="G89" s="3">
-        <v>448600</v>
+        <v>452100</v>
       </c>
       <c r="H89" s="3">
-        <v>64800</v>
+        <v>65300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3158,13 +3158,13 @@
         <v>-8900</v>
       </c>
       <c r="F91" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="G91" s="3">
         <v>-7500</v>
       </c>
       <c r="H91" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3254,16 +3254,16 @@
         <v>6200</v>
       </c>
       <c r="E94" s="3">
-        <v>-110800</v>
+        <v>-111600</v>
       </c>
       <c r="F94" s="3">
-        <v>-193600</v>
+        <v>-195100</v>
       </c>
       <c r="G94" s="3">
-        <v>-158400</v>
+        <v>-159600</v>
       </c>
       <c r="H94" s="3">
-        <v>-34900</v>
+        <v>-35200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3434,13 +3434,13 @@
         <v>2000</v>
       </c>
       <c r="E100" s="3">
-        <v>73900</v>
+        <v>74500</v>
       </c>
       <c r="F100" s="3">
-        <v>85500</v>
+        <v>86100</v>
       </c>
       <c r="G100" s="3">
-        <v>88200</v>
+        <v>88900</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -3470,7 +3470,7 @@
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G101" s="3">
         <v>-3600</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-264900</v>
+        <v>-266900</v>
       </c>
       <c r="E102" s="3">
-        <v>-103300</v>
+        <v>-104100</v>
       </c>
       <c r="F102" s="3">
-        <v>264600</v>
+        <v>266700</v>
       </c>
       <c r="G102" s="3">
-        <v>374800</v>
+        <v>377700</v>
       </c>
       <c r="H102" s="3">
-        <v>32000</v>
+        <v>32300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>198100</v>
+        <v>185100</v>
       </c>
       <c r="E8" s="3">
-        <v>698100</v>
+        <v>652100</v>
       </c>
       <c r="F8" s="3">
-        <v>876600</v>
+        <v>818800</v>
       </c>
       <c r="G8" s="3">
-        <v>1063600</v>
+        <v>993500</v>
       </c>
       <c r="H8" s="3">
-        <v>356600</v>
+        <v>333100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>85700</v>
+        <v>80100</v>
       </c>
       <c r="E9" s="3">
-        <v>179400</v>
+        <v>167600</v>
       </c>
       <c r="F9" s="3">
-        <v>70200</v>
+        <v>65600</v>
       </c>
       <c r="G9" s="3">
-        <v>79200</v>
+        <v>74000</v>
       </c>
       <c r="H9" s="3">
-        <v>26500</v>
+        <v>24800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>112400</v>
+        <v>105000</v>
       </c>
       <c r="E10" s="3">
-        <v>518600</v>
+        <v>484400</v>
       </c>
       <c r="F10" s="3">
-        <v>806400</v>
+        <v>753300</v>
       </c>
       <c r="G10" s="3">
-        <v>984400</v>
+        <v>919500</v>
       </c>
       <c r="H10" s="3">
-        <v>330100</v>
+        <v>308400</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -898,16 +898,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>86900</v>
+        <v>81200</v>
       </c>
       <c r="E14" s="3">
-        <v>24400</v>
+        <v>22800</v>
       </c>
       <c r="F14" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="G14" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>487300</v>
+        <v>455200</v>
       </c>
       <c r="E17" s="3">
-        <v>1094900</v>
+        <v>1022700</v>
       </c>
       <c r="F17" s="3">
-        <v>531900</v>
+        <v>496900</v>
       </c>
       <c r="G17" s="3">
-        <v>919600</v>
+        <v>859000</v>
       </c>
       <c r="H17" s="3">
-        <v>294100</v>
+        <v>274700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-289200</v>
+        <v>-270100</v>
       </c>
       <c r="E18" s="3">
-        <v>-396800</v>
+        <v>-370600</v>
       </c>
       <c r="F18" s="3">
-        <v>344700</v>
+        <v>321900</v>
       </c>
       <c r="G18" s="3">
-        <v>143900</v>
+        <v>134500</v>
       </c>
       <c r="H18" s="3">
-        <v>62600</v>
+        <v>58400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22300</v>
+        <v>20900</v>
       </c>
       <c r="E20" s="3">
-        <v>46500</v>
+        <v>43500</v>
       </c>
       <c r="F20" s="3">
-        <v>36900</v>
+        <v>34500</v>
       </c>
       <c r="G20" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="H20" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-263000</v>
+        <v>-245700</v>
       </c>
       <c r="E21" s="3">
-        <v>-344300</v>
+        <v>-321600</v>
       </c>
       <c r="F21" s="3">
-        <v>384500</v>
+        <v>359200</v>
       </c>
       <c r="G21" s="3">
-        <v>161500</v>
+        <v>150800</v>
       </c>
       <c r="H21" s="3">
-        <v>67400</v>
+        <v>62900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-266900</v>
+        <v>-249300</v>
       </c>
       <c r="E23" s="3">
-        <v>-350300</v>
+        <v>-327200</v>
       </c>
       <c r="F23" s="3">
-        <v>381600</v>
+        <v>356400</v>
       </c>
       <c r="G23" s="3">
-        <v>159600</v>
+        <v>149100</v>
       </c>
       <c r="H23" s="3">
-        <v>65900</v>
+        <v>61600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>84900</v>
+        <v>79300</v>
       </c>
       <c r="E24" s="3">
-        <v>-27500</v>
+        <v>-25700</v>
       </c>
       <c r="F24" s="3">
-        <v>63500</v>
+        <v>59300</v>
       </c>
       <c r="G24" s="3">
-        <v>55600</v>
+        <v>51900</v>
       </c>
       <c r="H24" s="3">
-        <v>42800</v>
+        <v>40000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-351800</v>
+        <v>-328600</v>
       </c>
       <c r="E26" s="3">
-        <v>-322700</v>
+        <v>-301500</v>
       </c>
       <c r="F26" s="3">
-        <v>318100</v>
+        <v>297100</v>
       </c>
       <c r="G26" s="3">
-        <v>104000</v>
+        <v>97100</v>
       </c>
       <c r="H26" s="3">
-        <v>23100</v>
+        <v>21600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-356400</v>
+        <v>-332900</v>
       </c>
       <c r="E27" s="3">
-        <v>-342400</v>
+        <v>-319800</v>
       </c>
       <c r="F27" s="3">
-        <v>271300</v>
+        <v>253500</v>
       </c>
       <c r="G27" s="3">
-        <v>63300</v>
+        <v>59100</v>
       </c>
       <c r="H27" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22300</v>
+        <v>-20900</v>
       </c>
       <c r="E32" s="3">
-        <v>-46500</v>
+        <v>-43500</v>
       </c>
       <c r="F32" s="3">
-        <v>-36900</v>
+        <v>-34500</v>
       </c>
       <c r="G32" s="3">
-        <v>-15600</v>
+        <v>-14600</v>
       </c>
       <c r="H32" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-356400</v>
+        <v>-332900</v>
       </c>
       <c r="E33" s="3">
-        <v>-342400</v>
+        <v>-319800</v>
       </c>
       <c r="F33" s="3">
-        <v>271300</v>
+        <v>253500</v>
       </c>
       <c r="G33" s="3">
-        <v>63300</v>
+        <v>59100</v>
       </c>
       <c r="H33" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-356400</v>
+        <v>-332900</v>
       </c>
       <c r="E35" s="3">
-        <v>-342400</v>
+        <v>-319800</v>
       </c>
       <c r="F35" s="3">
-        <v>271300</v>
+        <v>253500</v>
       </c>
       <c r="G35" s="3">
-        <v>63300</v>
+        <v>59100</v>
       </c>
       <c r="H35" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>430200</v>
+        <v>401800</v>
       </c>
       <c r="E41" s="3">
-        <v>738900</v>
+        <v>690200</v>
       </c>
       <c r="F41" s="3">
-        <v>862800</v>
+        <v>805900</v>
       </c>
       <c r="G41" s="3">
-        <v>596000</v>
+        <v>556700</v>
       </c>
       <c r="H41" s="3">
-        <v>195400</v>
+        <v>182500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>28100</v>
+        <v>26200</v>
       </c>
       <c r="E43" s="3">
-        <v>74600</v>
+        <v>69700</v>
       </c>
       <c r="F43" s="3">
-        <v>76600</v>
+        <v>71500</v>
       </c>
       <c r="G43" s="3">
-        <v>65000</v>
+        <v>60700</v>
       </c>
       <c r="H43" s="3">
-        <v>45700</v>
+        <v>42700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>105000</v>
+        <v>98000</v>
       </c>
       <c r="E45" s="3">
-        <v>154800</v>
+        <v>144600</v>
       </c>
       <c r="F45" s="3">
-        <v>60600</v>
+        <v>56600</v>
       </c>
       <c r="G45" s="3">
-        <v>61800</v>
+        <v>57800</v>
       </c>
       <c r="H45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>174500</v>
+        <v>163000</v>
       </c>
       <c r="E47" s="3">
-        <v>246600</v>
+        <v>230300</v>
       </c>
       <c r="F47" s="3">
-        <v>375700</v>
+        <v>350900</v>
       </c>
       <c r="G47" s="3">
-        <v>210800</v>
+        <v>196900</v>
       </c>
       <c r="H47" s="3">
-        <v>37400</v>
+        <v>34900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="E48" s="3">
-        <v>36600</v>
+        <v>34200</v>
       </c>
       <c r="F48" s="3">
-        <v>13600</v>
+        <v>12700</v>
       </c>
       <c r="G48" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="H48" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="E49" s="3">
-        <v>23000</v>
+        <v>21500</v>
       </c>
       <c r="F49" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="G49" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="H49" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66900</v>
+        <v>62400</v>
       </c>
       <c r="E52" s="3">
-        <v>101700</v>
+        <v>95000</v>
       </c>
       <c r="F52" s="3">
-        <v>13300</v>
+        <v>12400</v>
       </c>
       <c r="G52" s="3">
-        <v>17600</v>
+        <v>16500</v>
       </c>
       <c r="H52" s="3">
-        <v>31600</v>
+        <v>29500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>849800</v>
+        <v>793800</v>
       </c>
       <c r="E54" s="3">
-        <v>1401000</v>
+        <v>1308600</v>
       </c>
       <c r="F54" s="3">
-        <v>1436900</v>
+        <v>1342100</v>
       </c>
       <c r="G54" s="3">
-        <v>990100</v>
+        <v>924800</v>
       </c>
       <c r="H54" s="3">
-        <v>339800</v>
+        <v>317400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="E57" s="3">
-        <v>39300</v>
+        <v>36700</v>
       </c>
       <c r="F57" s="3">
-        <v>24600</v>
+        <v>22900</v>
       </c>
       <c r="G57" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="H57" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>137600</v>
+        <v>128600</v>
       </c>
       <c r="E59" s="3">
-        <v>221000</v>
+        <v>206400</v>
       </c>
       <c r="F59" s="3">
-        <v>138300</v>
+        <v>129100</v>
       </c>
       <c r="G59" s="3">
-        <v>184000</v>
+        <v>171900</v>
       </c>
       <c r="H59" s="3">
-        <v>120600</v>
+        <v>112700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="F62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
-        <v>1500</v>
-      </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>192100</v>
+        <v>179500</v>
       </c>
       <c r="E66" s="3">
-        <v>410100</v>
+        <v>383100</v>
       </c>
       <c r="F66" s="3">
-        <v>233700</v>
+        <v>218300</v>
       </c>
       <c r="G66" s="3">
-        <v>278800</v>
+        <v>260400</v>
       </c>
       <c r="H66" s="3">
-        <v>150100</v>
+        <v>140200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>218100</v>
+        <v>203700</v>
       </c>
       <c r="G70" s="3">
-        <v>129400</v>
+        <v>120900</v>
       </c>
       <c r="H70" s="3">
-        <v>34000</v>
+        <v>31700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-214000</v>
+        <v>-199900</v>
       </c>
       <c r="E72" s="3">
-        <v>149400</v>
+        <v>139600</v>
       </c>
       <c r="F72" s="3">
-        <v>491800</v>
+        <v>459400</v>
       </c>
       <c r="G72" s="3">
-        <v>181900</v>
+        <v>169900</v>
       </c>
       <c r="H72" s="3">
-        <v>111500</v>
+        <v>104100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>657600</v>
+        <v>614300</v>
       </c>
       <c r="E76" s="3">
-        <v>990900</v>
+        <v>925500</v>
       </c>
       <c r="F76" s="3">
-        <v>985100</v>
+        <v>920200</v>
       </c>
       <c r="G76" s="3">
-        <v>581900</v>
+        <v>543500</v>
       </c>
       <c r="H76" s="3">
-        <v>155600</v>
+        <v>145400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-356400</v>
+        <v>-332900</v>
       </c>
       <c r="E81" s="3">
-        <v>-342400</v>
+        <v>-319800</v>
       </c>
       <c r="F81" s="3">
-        <v>271300</v>
+        <v>253500</v>
       </c>
       <c r="G81" s="3">
-        <v>63300</v>
+        <v>59100</v>
       </c>
       <c r="H81" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="F83" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="G83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H83" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-275200</v>
+        <v>-257100</v>
       </c>
       <c r="E89" s="3">
-        <v>-67700</v>
+        <v>-63200</v>
       </c>
       <c r="F89" s="3">
-        <v>370100</v>
+        <v>345700</v>
       </c>
       <c r="G89" s="3">
-        <v>452100</v>
+        <v>422300</v>
       </c>
       <c r="H89" s="3">
-        <v>65300</v>
+        <v>61000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-8900</v>
+        <v>-8400</v>
       </c>
       <c r="F91" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="G91" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="E94" s="3">
-        <v>-111600</v>
+        <v>-104300</v>
       </c>
       <c r="F94" s="3">
-        <v>-195100</v>
+        <v>-182300</v>
       </c>
       <c r="G94" s="3">
-        <v>-159600</v>
+        <v>-149100</v>
       </c>
       <c r="H94" s="3">
-        <v>-35200</v>
+        <v>-32800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E100" s="3">
-        <v>74500</v>
+        <v>69600</v>
       </c>
       <c r="F100" s="3">
-        <v>86100</v>
+        <v>80400</v>
       </c>
       <c r="G100" s="3">
-        <v>88900</v>
+        <v>83000</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -3467,16 +3467,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="G101" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="H101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-266900</v>
+        <v>-249300</v>
       </c>
       <c r="E102" s="3">
-        <v>-104100</v>
+        <v>-97200</v>
       </c>
       <c r="F102" s="3">
-        <v>266700</v>
+        <v>249100</v>
       </c>
       <c r="G102" s="3">
-        <v>377700</v>
+        <v>352800</v>
       </c>
       <c r="H102" s="3">
-        <v>32300</v>
+        <v>30100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>JFU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>185100</v>
+        <v>109100</v>
       </c>
       <c r="E8" s="3">
-        <v>652100</v>
+        <v>183400</v>
       </c>
       <c r="F8" s="3">
-        <v>818800</v>
+        <v>646200</v>
       </c>
       <c r="G8" s="3">
-        <v>993500</v>
+        <v>811400</v>
       </c>
       <c r="H8" s="3">
-        <v>333100</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>984500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>330100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>80100</v>
+        <v>6900</v>
       </c>
       <c r="E9" s="3">
-        <v>167600</v>
+        <v>79400</v>
       </c>
       <c r="F9" s="3">
-        <v>65600</v>
+        <v>166100</v>
       </c>
       <c r="G9" s="3">
-        <v>74000</v>
+        <v>65000</v>
       </c>
       <c r="H9" s="3">
-        <v>24800</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>73300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>24500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>105000</v>
+        <v>102300</v>
       </c>
       <c r="E10" s="3">
-        <v>484400</v>
+        <v>104000</v>
       </c>
       <c r="F10" s="3">
-        <v>753300</v>
+        <v>480100</v>
       </c>
       <c r="G10" s="3">
-        <v>919500</v>
+        <v>746500</v>
       </c>
       <c r="H10" s="3">
-        <v>308400</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>911200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>305600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,29 +907,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>81200</v>
+        <v>5100</v>
       </c>
       <c r="E14" s="3">
-        <v>22800</v>
+        <v>80500</v>
       </c>
       <c r="F14" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G14" s="3">
         <v>3400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -924,9 +943,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>455200</v>
+        <v>124400</v>
       </c>
       <c r="E17" s="3">
-        <v>1022700</v>
+        <v>451100</v>
       </c>
       <c r="F17" s="3">
-        <v>496900</v>
+        <v>1013500</v>
       </c>
       <c r="G17" s="3">
-        <v>859000</v>
+        <v>492400</v>
       </c>
       <c r="H17" s="3">
-        <v>274700</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>851300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>272200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-270100</v>
+        <v>-15200</v>
       </c>
       <c r="E18" s="3">
-        <v>-370600</v>
+        <v>-267700</v>
       </c>
       <c r="F18" s="3">
-        <v>321900</v>
+        <v>-367300</v>
       </c>
       <c r="G18" s="3">
-        <v>134500</v>
+        <v>319000</v>
       </c>
       <c r="H18" s="3">
-        <v>58400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>133200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>57900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,29 +1083,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20900</v>
+        <v>-14200</v>
       </c>
       <c r="E20" s="3">
-        <v>43500</v>
+        <v>20700</v>
       </c>
       <c r="F20" s="3">
-        <v>34500</v>
+        <v>43100</v>
       </c>
       <c r="G20" s="3">
-        <v>14600</v>
+        <v>34200</v>
       </c>
       <c r="H20" s="3">
+        <v>14500</v>
+      </c>
+      <c r="I20" s="3">
         <v>3100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-245700</v>
+        <v>-24800</v>
       </c>
       <c r="E21" s="3">
-        <v>-321600</v>
+        <v>-243500</v>
       </c>
       <c r="F21" s="3">
-        <v>359200</v>
+        <v>-318800</v>
       </c>
       <c r="G21" s="3">
-        <v>150800</v>
+        <v>355900</v>
       </c>
       <c r="H21" s="3">
-        <v>62900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>149400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>62400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,29 +1188,32 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-249300</v>
+        <v>-29400</v>
       </c>
       <c r="E23" s="3">
-        <v>-327200</v>
+        <v>-247000</v>
       </c>
       <c r="F23" s="3">
-        <v>356400</v>
+        <v>-324200</v>
       </c>
       <c r="G23" s="3">
-        <v>149100</v>
+        <v>353200</v>
       </c>
       <c r="H23" s="3">
-        <v>61600</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>147700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>61000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,29 +1224,32 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>79300</v>
+        <v>3900</v>
       </c>
       <c r="E24" s="3">
-        <v>-25700</v>
+        <v>78600</v>
       </c>
       <c r="F24" s="3">
-        <v>59300</v>
+        <v>-25500</v>
       </c>
       <c r="G24" s="3">
-        <v>51900</v>
+        <v>58800</v>
       </c>
       <c r="H24" s="3">
-        <v>40000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>51500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>39600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-328600</v>
+        <v>-33300</v>
       </c>
       <c r="E26" s="3">
-        <v>-301500</v>
+        <v>-325600</v>
       </c>
       <c r="F26" s="3">
-        <v>297100</v>
+        <v>-298700</v>
       </c>
       <c r="G26" s="3">
-        <v>97100</v>
+        <v>294400</v>
       </c>
       <c r="H26" s="3">
-        <v>21600</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>96200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>21400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-332900</v>
+        <v>-34300</v>
       </c>
       <c r="E27" s="3">
-        <v>-319800</v>
+        <v>-329900</v>
       </c>
       <c r="F27" s="3">
-        <v>253500</v>
+        <v>-316900</v>
       </c>
       <c r="G27" s="3">
-        <v>59100</v>
+        <v>251200</v>
       </c>
       <c r="H27" s="3">
-        <v>21000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>58600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>20800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,30 +1512,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20900</v>
+        <v>14200</v>
       </c>
       <c r="E32" s="3">
-        <v>-43500</v>
+        <v>-20700</v>
       </c>
       <c r="F32" s="3">
-        <v>-34500</v>
+        <v>-43100</v>
       </c>
       <c r="G32" s="3">
-        <v>-14600</v>
+        <v>-34200</v>
       </c>
       <c r="H32" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-332900</v>
+        <v>-34300</v>
       </c>
       <c r="E33" s="3">
-        <v>-319800</v>
+        <v>-329900</v>
       </c>
       <c r="F33" s="3">
-        <v>253500</v>
+        <v>-316900</v>
       </c>
       <c r="G33" s="3">
-        <v>59100</v>
+        <v>251200</v>
       </c>
       <c r="H33" s="3">
-        <v>21000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>58600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>20800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-332900</v>
+        <v>-34300</v>
       </c>
       <c r="E35" s="3">
-        <v>-319800</v>
+        <v>-329900</v>
       </c>
       <c r="F35" s="3">
-        <v>253500</v>
+        <v>-316900</v>
       </c>
       <c r="G35" s="3">
-        <v>59100</v>
+        <v>251200</v>
       </c>
       <c r="H35" s="3">
-        <v>21000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>58600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>20800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>401800</v>
+        <v>356800</v>
       </c>
       <c r="E41" s="3">
-        <v>690200</v>
+        <v>398200</v>
       </c>
       <c r="F41" s="3">
-        <v>805900</v>
+        <v>684000</v>
       </c>
       <c r="G41" s="3">
-        <v>556700</v>
+        <v>798600</v>
       </c>
       <c r="H41" s="3">
-        <v>182500</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>551700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>180900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,29 +1801,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26200</v>
+        <v>28600</v>
       </c>
       <c r="E43" s="3">
-        <v>69700</v>
+        <v>26000</v>
       </c>
       <c r="F43" s="3">
-        <v>71500</v>
+        <v>69100</v>
       </c>
       <c r="G43" s="3">
-        <v>60700</v>
+        <v>70900</v>
       </c>
       <c r="H43" s="3">
-        <v>42700</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>60100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>42300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,30 +1873,33 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>98000</v>
+        <v>97200</v>
       </c>
       <c r="E45" s="3">
-        <v>144600</v>
+        <v>97100</v>
       </c>
       <c r="F45" s="3">
-        <v>56600</v>
+        <v>143300</v>
       </c>
       <c r="G45" s="3">
-        <v>57800</v>
+        <v>56100</v>
       </c>
       <c r="H45" s="3">
+        <v>57200</v>
+      </c>
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,9 +1909,12 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1844,29 +1945,32 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>163000</v>
+        <v>175600</v>
       </c>
       <c r="E47" s="3">
-        <v>230300</v>
+        <v>161600</v>
       </c>
       <c r="F47" s="3">
-        <v>350900</v>
+        <v>228200</v>
       </c>
       <c r="G47" s="3">
-        <v>196900</v>
+        <v>347800</v>
       </c>
       <c r="H47" s="3">
-        <v>34900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>195100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>34600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1877,29 +1981,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13600</v>
+        <v>9100</v>
       </c>
       <c r="E48" s="3">
-        <v>34200</v>
+        <v>13400</v>
       </c>
       <c r="F48" s="3">
-        <v>12700</v>
+        <v>33900</v>
       </c>
       <c r="G48" s="3">
-        <v>8100</v>
+        <v>12600</v>
       </c>
       <c r="H48" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>8000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1910,30 +2017,33 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9800</v>
+        <v>8700</v>
       </c>
       <c r="E49" s="3">
-        <v>21500</v>
+        <v>9700</v>
       </c>
       <c r="F49" s="3">
+        <v>21300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H49" s="3">
         <v>8600</v>
       </c>
-      <c r="G49" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>62400</v>
+        <v>48800</v>
       </c>
       <c r="E52" s="3">
-        <v>95000</v>
+        <v>61900</v>
       </c>
       <c r="F52" s="3">
-        <v>12400</v>
+        <v>94100</v>
       </c>
       <c r="G52" s="3">
-        <v>16500</v>
+        <v>12300</v>
       </c>
       <c r="H52" s="3">
-        <v>29500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>16300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>29300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>793800</v>
+        <v>737400</v>
       </c>
       <c r="E54" s="3">
-        <v>1308600</v>
+        <v>786600</v>
       </c>
       <c r="F54" s="3">
-        <v>1342100</v>
+        <v>1296800</v>
       </c>
       <c r="G54" s="3">
-        <v>924800</v>
+        <v>1330000</v>
       </c>
       <c r="H54" s="3">
-        <v>317400</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>916500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>314500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,28 +2268,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22500</v>
+        <v>13700</v>
       </c>
       <c r="E57" s="3">
-        <v>36700</v>
+        <v>22300</v>
       </c>
       <c r="F57" s="3">
-        <v>22900</v>
+        <v>36300</v>
       </c>
       <c r="G57" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="H57" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>22300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2171,9 +2301,12 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2204,29 +2337,32 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>128600</v>
+        <v>99000</v>
       </c>
       <c r="E59" s="3">
-        <v>206400</v>
+        <v>127400</v>
       </c>
       <c r="F59" s="3">
-        <v>129100</v>
+        <v>204500</v>
       </c>
       <c r="G59" s="3">
-        <v>171900</v>
+        <v>128000</v>
       </c>
       <c r="H59" s="3">
-        <v>112700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>170400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>111700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2237,9 +2373,12 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,30 +2445,33 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>179500</v>
+        <v>133700</v>
       </c>
       <c r="E66" s="3">
-        <v>383100</v>
+        <v>177900</v>
       </c>
       <c r="F66" s="3">
-        <v>218300</v>
+        <v>379600</v>
       </c>
       <c r="G66" s="3">
-        <v>260400</v>
+        <v>216300</v>
       </c>
       <c r="H66" s="3">
-        <v>140200</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>258000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>139000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,16 +2729,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>203700</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>120900</v>
+        <v>201900</v>
       </c>
       <c r="H70" s="3">
-        <v>31700</v>
+        <v>119800</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>31400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-199900</v>
+        <v>-232400</v>
       </c>
       <c r="E72" s="3">
-        <v>139600</v>
+        <v>-198100</v>
       </c>
       <c r="F72" s="3">
-        <v>459400</v>
+        <v>138300</v>
       </c>
       <c r="G72" s="3">
-        <v>169900</v>
+        <v>455300</v>
       </c>
       <c r="H72" s="3">
-        <v>104100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>168400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>103200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>614300</v>
+        <v>603700</v>
       </c>
       <c r="E76" s="3">
-        <v>925500</v>
+        <v>608700</v>
       </c>
       <c r="F76" s="3">
-        <v>920200</v>
+        <v>917200</v>
       </c>
       <c r="G76" s="3">
-        <v>543500</v>
+        <v>911900</v>
       </c>
       <c r="H76" s="3">
-        <v>145400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>538600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>144100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-332900</v>
+        <v>-34300</v>
       </c>
       <c r="E81" s="3">
-        <v>-319800</v>
+        <v>-329900</v>
       </c>
       <c r="F81" s="3">
-        <v>253500</v>
+        <v>-316900</v>
       </c>
       <c r="G81" s="3">
-        <v>59100</v>
+        <v>251200</v>
       </c>
       <c r="H81" s="3">
-        <v>21000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>58600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>20800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,29 +3097,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F83" s="3">
         <v>5500</v>
       </c>
-      <c r="F83" s="3">
-        <v>2800</v>
-      </c>
       <c r="G83" s="3">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="H83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-257100</v>
+        <v>-33500</v>
       </c>
       <c r="E89" s="3">
-        <v>-63200</v>
+        <v>-254800</v>
       </c>
       <c r="F89" s="3">
-        <v>345700</v>
+        <v>-62700</v>
       </c>
       <c r="G89" s="3">
-        <v>422300</v>
+        <v>342600</v>
       </c>
       <c r="H89" s="3">
-        <v>61000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>418500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>60500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,28 +3365,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-8400</v>
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>-7200</v>
+        <v>-8300</v>
       </c>
       <c r="G91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-2900</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,29 +3470,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E94" s="3">
         <v>5800</v>
       </c>
-      <c r="E94" s="3">
-        <v>-104300</v>
-      </c>
       <c r="F94" s="3">
-        <v>-182300</v>
+        <v>-103300</v>
       </c>
       <c r="G94" s="3">
-        <v>-149100</v>
+        <v>-180600</v>
       </c>
       <c r="H94" s="3">
-        <v>-32800</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-147700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-32600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,30 +3666,33 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
-        <v>69600</v>
-      </c>
       <c r="F100" s="3">
-        <v>80400</v>
+        <v>68900</v>
       </c>
       <c r="G100" s="3">
-        <v>83000</v>
+        <v>79700</v>
       </c>
       <c r="H100" s="3">
+        <v>82300</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,30 +3702,33 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-3900</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-249300</v>
+        <v>-55200</v>
       </c>
       <c r="E102" s="3">
-        <v>-97200</v>
+        <v>-247100</v>
       </c>
       <c r="F102" s="3">
-        <v>249100</v>
+        <v>-96300</v>
       </c>
       <c r="G102" s="3">
-        <v>352800</v>
+        <v>246800</v>
       </c>
       <c r="H102" s="3">
-        <v>30100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>349600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>29900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>109100</v>
+        <v>104000</v>
       </c>
       <c r="E8" s="3">
-        <v>183400</v>
+        <v>174800</v>
       </c>
       <c r="F8" s="3">
-        <v>646200</v>
+        <v>616000</v>
       </c>
       <c r="G8" s="3">
-        <v>811400</v>
+        <v>773500</v>
       </c>
       <c r="H8" s="3">
-        <v>984500</v>
+        <v>938500</v>
       </c>
       <c r="I8" s="3">
-        <v>330100</v>
+        <v>314700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="E9" s="3">
-        <v>79400</v>
+        <v>75700</v>
       </c>
       <c r="F9" s="3">
-        <v>166100</v>
+        <v>158300</v>
       </c>
       <c r="G9" s="3">
-        <v>65000</v>
+        <v>61900</v>
       </c>
       <c r="H9" s="3">
-        <v>73300</v>
+        <v>69900</v>
       </c>
       <c r="I9" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>102300</v>
+        <v>97500</v>
       </c>
       <c r="E10" s="3">
-        <v>104000</v>
+        <v>99200</v>
       </c>
       <c r="F10" s="3">
-        <v>480100</v>
+        <v>457600</v>
       </c>
       <c r="G10" s="3">
-        <v>746500</v>
+        <v>711500</v>
       </c>
       <c r="H10" s="3">
-        <v>911200</v>
+        <v>868600</v>
       </c>
       <c r="I10" s="3">
-        <v>305600</v>
+        <v>291300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -917,19 +917,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="E14" s="3">
-        <v>80500</v>
+        <v>76700</v>
       </c>
       <c r="F14" s="3">
-        <v>22600</v>
+        <v>21600</v>
       </c>
       <c r="G14" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H14" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>124400</v>
+        <v>118500</v>
       </c>
       <c r="E17" s="3">
-        <v>451100</v>
+        <v>430000</v>
       </c>
       <c r="F17" s="3">
-        <v>1013500</v>
+        <v>966100</v>
       </c>
       <c r="G17" s="3">
-        <v>492400</v>
+        <v>469300</v>
       </c>
       <c r="H17" s="3">
-        <v>851300</v>
+        <v>811400</v>
       </c>
       <c r="I17" s="3">
-        <v>272200</v>
+        <v>259500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15200</v>
+        <v>-14500</v>
       </c>
       <c r="E18" s="3">
-        <v>-267700</v>
+        <v>-255200</v>
       </c>
       <c r="F18" s="3">
-        <v>-367300</v>
+        <v>-350100</v>
       </c>
       <c r="G18" s="3">
-        <v>319000</v>
+        <v>304100</v>
       </c>
       <c r="H18" s="3">
-        <v>133200</v>
+        <v>127000</v>
       </c>
       <c r="I18" s="3">
-        <v>57900</v>
+        <v>55200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14200</v>
+        <v>-13500</v>
       </c>
       <c r="E20" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="F20" s="3">
-        <v>43100</v>
+        <v>41000</v>
       </c>
       <c r="G20" s="3">
-        <v>34200</v>
+        <v>32600</v>
       </c>
       <c r="H20" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="I20" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-24800</v>
+        <v>-23700</v>
       </c>
       <c r="E21" s="3">
-        <v>-243500</v>
+        <v>-232100</v>
       </c>
       <c r="F21" s="3">
-        <v>-318800</v>
+        <v>-303900</v>
       </c>
       <c r="G21" s="3">
-        <v>355900</v>
+        <v>339300</v>
       </c>
       <c r="H21" s="3">
-        <v>149400</v>
+        <v>142400</v>
       </c>
       <c r="I21" s="3">
-        <v>62400</v>
+        <v>59400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29400</v>
+        <v>-28100</v>
       </c>
       <c r="E23" s="3">
-        <v>-247000</v>
+        <v>-235500</v>
       </c>
       <c r="F23" s="3">
-        <v>-324200</v>
+        <v>-309100</v>
       </c>
       <c r="G23" s="3">
-        <v>353200</v>
+        <v>336700</v>
       </c>
       <c r="H23" s="3">
-        <v>147700</v>
+        <v>140800</v>
       </c>
       <c r="I23" s="3">
-        <v>61000</v>
+        <v>58100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>78600</v>
+        <v>74900</v>
       </c>
       <c r="F24" s="3">
-        <v>-25500</v>
+        <v>-24300</v>
       </c>
       <c r="G24" s="3">
-        <v>58800</v>
+        <v>56000</v>
       </c>
       <c r="H24" s="3">
-        <v>51500</v>
+        <v>49100</v>
       </c>
       <c r="I24" s="3">
-        <v>39600</v>
+        <v>37700</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33300</v>
+        <v>-31800</v>
       </c>
       <c r="E26" s="3">
-        <v>-325600</v>
+        <v>-310400</v>
       </c>
       <c r="F26" s="3">
-        <v>-298700</v>
+        <v>-284800</v>
       </c>
       <c r="G26" s="3">
-        <v>294400</v>
+        <v>280700</v>
       </c>
       <c r="H26" s="3">
-        <v>96200</v>
+        <v>91700</v>
       </c>
       <c r="I26" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34300</v>
+        <v>-32700</v>
       </c>
       <c r="E27" s="3">
-        <v>-329900</v>
+        <v>-314400</v>
       </c>
       <c r="F27" s="3">
-        <v>-316900</v>
+        <v>-302100</v>
       </c>
       <c r="G27" s="3">
-        <v>251200</v>
+        <v>239400</v>
       </c>
       <c r="H27" s="3">
-        <v>58600</v>
+        <v>55900</v>
       </c>
       <c r="I27" s="3">
-        <v>20800</v>
+        <v>19800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="E32" s="3">
-        <v>-20700</v>
+        <v>-19700</v>
       </c>
       <c r="F32" s="3">
-        <v>-43100</v>
+        <v>-41000</v>
       </c>
       <c r="G32" s="3">
-        <v>-34200</v>
+        <v>-32600</v>
       </c>
       <c r="H32" s="3">
-        <v>-14500</v>
+        <v>-13800</v>
       </c>
       <c r="I32" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34300</v>
+        <v>-32700</v>
       </c>
       <c r="E33" s="3">
-        <v>-329900</v>
+        <v>-314400</v>
       </c>
       <c r="F33" s="3">
-        <v>-316900</v>
+        <v>-302100</v>
       </c>
       <c r="G33" s="3">
-        <v>251200</v>
+        <v>239400</v>
       </c>
       <c r="H33" s="3">
-        <v>58600</v>
+        <v>55900</v>
       </c>
       <c r="I33" s="3">
-        <v>20800</v>
+        <v>19800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34300</v>
+        <v>-32700</v>
       </c>
       <c r="E35" s="3">
-        <v>-329900</v>
+        <v>-314400</v>
       </c>
       <c r="F35" s="3">
-        <v>-316900</v>
+        <v>-302100</v>
       </c>
       <c r="G35" s="3">
-        <v>251200</v>
+        <v>239400</v>
       </c>
       <c r="H35" s="3">
-        <v>58600</v>
+        <v>55900</v>
       </c>
       <c r="I35" s="3">
-        <v>20800</v>
+        <v>19800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>356800</v>
+        <v>340100</v>
       </c>
       <c r="E41" s="3">
-        <v>398200</v>
+        <v>379600</v>
       </c>
       <c r="F41" s="3">
-        <v>684000</v>
+        <v>652000</v>
       </c>
       <c r="G41" s="3">
-        <v>798600</v>
+        <v>761300</v>
       </c>
       <c r="H41" s="3">
-        <v>551700</v>
+        <v>525900</v>
       </c>
       <c r="I41" s="3">
-        <v>180900</v>
+        <v>172400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>28600</v>
+        <v>27300</v>
       </c>
       <c r="E43" s="3">
-        <v>26000</v>
+        <v>24800</v>
       </c>
       <c r="F43" s="3">
-        <v>69100</v>
+        <v>65900</v>
       </c>
       <c r="G43" s="3">
-        <v>70900</v>
+        <v>67600</v>
       </c>
       <c r="H43" s="3">
-        <v>60100</v>
+        <v>57300</v>
       </c>
       <c r="I43" s="3">
-        <v>42300</v>
+        <v>40400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>97200</v>
+        <v>92600</v>
       </c>
       <c r="E45" s="3">
-        <v>97100</v>
+        <v>92600</v>
       </c>
       <c r="F45" s="3">
-        <v>143300</v>
+        <v>136600</v>
       </c>
       <c r="G45" s="3">
-        <v>56100</v>
+        <v>53500</v>
       </c>
       <c r="H45" s="3">
-        <v>57200</v>
+        <v>54600</v>
       </c>
       <c r="I45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>175600</v>
+        <v>167400</v>
       </c>
       <c r="E47" s="3">
-        <v>161600</v>
+        <v>154000</v>
       </c>
       <c r="F47" s="3">
-        <v>228200</v>
+        <v>217600</v>
       </c>
       <c r="G47" s="3">
-        <v>347800</v>
+        <v>331500</v>
       </c>
       <c r="H47" s="3">
-        <v>195100</v>
+        <v>186000</v>
       </c>
       <c r="I47" s="3">
-        <v>34600</v>
+        <v>33000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="E48" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="F48" s="3">
-        <v>33900</v>
+        <v>32300</v>
       </c>
       <c r="G48" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="H48" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="I48" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="E49" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="F49" s="3">
-        <v>21300</v>
+        <v>20300</v>
       </c>
       <c r="G49" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="H49" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="I49" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48800</v>
+        <v>46500</v>
       </c>
       <c r="E52" s="3">
-        <v>61900</v>
+        <v>59000</v>
       </c>
       <c r="F52" s="3">
-        <v>94100</v>
+        <v>89700</v>
       </c>
       <c r="G52" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="H52" s="3">
-        <v>16300</v>
+        <v>15600</v>
       </c>
       <c r="I52" s="3">
-        <v>29300</v>
+        <v>27900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>737400</v>
+        <v>702900</v>
       </c>
       <c r="E54" s="3">
-        <v>786600</v>
+        <v>749800</v>
       </c>
       <c r="F54" s="3">
-        <v>1296800</v>
+        <v>1236100</v>
       </c>
       <c r="G54" s="3">
-        <v>1330000</v>
+        <v>1267800</v>
       </c>
       <c r="H54" s="3">
-        <v>916500</v>
+        <v>873600</v>
       </c>
       <c r="I54" s="3">
-        <v>314500</v>
+        <v>299800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="E57" s="3">
-        <v>22300</v>
+        <v>21200</v>
       </c>
       <c r="F57" s="3">
-        <v>36300</v>
+        <v>34600</v>
       </c>
       <c r="G57" s="3">
-        <v>22700</v>
+        <v>21700</v>
       </c>
       <c r="H57" s="3">
-        <v>22300</v>
+        <v>21300</v>
       </c>
       <c r="I57" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>99000</v>
+        <v>94300</v>
       </c>
       <c r="E59" s="3">
-        <v>127400</v>
+        <v>121400</v>
       </c>
       <c r="F59" s="3">
-        <v>204500</v>
+        <v>195000</v>
       </c>
       <c r="G59" s="3">
-        <v>128000</v>
+        <v>122000</v>
       </c>
       <c r="H59" s="3">
-        <v>170400</v>
+        <v>162400</v>
       </c>
       <c r="I59" s="3">
-        <v>111700</v>
+        <v>106400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2458,16 +2458,16 @@
         <v>1100</v>
       </c>
       <c r="E62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G62" s="3">
         <v>1300</v>
       </c>
       <c r="H62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>133700</v>
+        <v>127400</v>
       </c>
       <c r="E66" s="3">
-        <v>177900</v>
+        <v>169500</v>
       </c>
       <c r="F66" s="3">
-        <v>379600</v>
+        <v>361900</v>
       </c>
       <c r="G66" s="3">
-        <v>216300</v>
+        <v>206200</v>
       </c>
       <c r="H66" s="3">
-        <v>258000</v>
+        <v>246000</v>
       </c>
       <c r="I66" s="3">
-        <v>139000</v>
+        <v>132500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>201900</v>
+        <v>192400</v>
       </c>
       <c r="H70" s="3">
-        <v>119800</v>
+        <v>114200</v>
       </c>
       <c r="I70" s="3">
-        <v>31400</v>
+        <v>30000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-232400</v>
+        <v>-221500</v>
       </c>
       <c r="E72" s="3">
-        <v>-198100</v>
+        <v>-188800</v>
       </c>
       <c r="F72" s="3">
-        <v>138300</v>
+        <v>131900</v>
       </c>
       <c r="G72" s="3">
-        <v>455300</v>
+        <v>434000</v>
       </c>
       <c r="H72" s="3">
-        <v>168400</v>
+        <v>160500</v>
       </c>
       <c r="I72" s="3">
-        <v>103200</v>
+        <v>98400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>603700</v>
+        <v>575500</v>
       </c>
       <c r="E76" s="3">
-        <v>608700</v>
+        <v>580300</v>
       </c>
       <c r="F76" s="3">
-        <v>917200</v>
+        <v>874300</v>
       </c>
       <c r="G76" s="3">
-        <v>911900</v>
+        <v>869300</v>
       </c>
       <c r="H76" s="3">
-        <v>538600</v>
+        <v>513400</v>
       </c>
       <c r="I76" s="3">
-        <v>144100</v>
+        <v>137300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34300</v>
+        <v>-32700</v>
       </c>
       <c r="E81" s="3">
-        <v>-329900</v>
+        <v>-314400</v>
       </c>
       <c r="F81" s="3">
-        <v>-316900</v>
+        <v>-302100</v>
       </c>
       <c r="G81" s="3">
-        <v>251200</v>
+        <v>239400</v>
       </c>
       <c r="H81" s="3">
-        <v>58600</v>
+        <v>55900</v>
       </c>
       <c r="I81" s="3">
-        <v>20800</v>
+        <v>19800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F83" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="G83" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H83" s="3">
         <v>1700</v>
       </c>
       <c r="I83" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-33500</v>
+        <v>-31900</v>
       </c>
       <c r="E89" s="3">
-        <v>-254800</v>
+        <v>-242800</v>
       </c>
       <c r="F89" s="3">
-        <v>-62700</v>
+        <v>-59700</v>
       </c>
       <c r="G89" s="3">
-        <v>342600</v>
+        <v>326500</v>
       </c>
       <c r="H89" s="3">
-        <v>418500</v>
+        <v>398900</v>
       </c>
       <c r="I89" s="3">
-        <v>60500</v>
+        <v>57600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3378,16 +3378,16 @@
         <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>-8300</v>
+        <v>-7900</v>
       </c>
       <c r="G91" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="H91" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-47000</v>
+        <v>-44800</v>
       </c>
       <c r="E94" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="F94" s="3">
-        <v>-103300</v>
+        <v>-98500</v>
       </c>
       <c r="G94" s="3">
-        <v>-180600</v>
+        <v>-172200</v>
       </c>
       <c r="H94" s="3">
-        <v>-147700</v>
+        <v>-140800</v>
       </c>
       <c r="I94" s="3">
-        <v>-32600</v>
+        <v>-31000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>29200</v>
+        <v>27800</v>
       </c>
       <c r="E100" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F100" s="3">
-        <v>68900</v>
+        <v>65700</v>
       </c>
       <c r="G100" s="3">
-        <v>79700</v>
+        <v>76000</v>
       </c>
       <c r="H100" s="3">
-        <v>82300</v>
+        <v>78400</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -3712,7 +3712,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>700</v>
       </c>
       <c r="G101" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="H101" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="I101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-55200</v>
+        <v>-52600</v>
       </c>
       <c r="E102" s="3">
-        <v>-247100</v>
+        <v>-235500</v>
       </c>
       <c r="F102" s="3">
-        <v>-96300</v>
+        <v>-91800</v>
       </c>
       <c r="G102" s="3">
-        <v>246800</v>
+        <v>235300</v>
       </c>
       <c r="H102" s="3">
-        <v>349600</v>
+        <v>333300</v>
       </c>
       <c r="I102" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>104000</v>
+        <v>107300</v>
       </c>
       <c r="E8" s="3">
-        <v>174800</v>
+        <v>180400</v>
       </c>
       <c r="F8" s="3">
-        <v>616000</v>
+        <v>635500</v>
       </c>
       <c r="G8" s="3">
-        <v>773500</v>
+        <v>798000</v>
       </c>
       <c r="H8" s="3">
-        <v>938500</v>
+        <v>968300</v>
       </c>
       <c r="I8" s="3">
-        <v>314700</v>
+        <v>324700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="E9" s="3">
-        <v>75700</v>
+        <v>78100</v>
       </c>
       <c r="F9" s="3">
-        <v>158300</v>
+        <v>163400</v>
       </c>
       <c r="G9" s="3">
-        <v>61900</v>
+        <v>63900</v>
       </c>
       <c r="H9" s="3">
-        <v>69900</v>
+        <v>72100</v>
       </c>
       <c r="I9" s="3">
-        <v>23400</v>
+        <v>24100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>97500</v>
+        <v>100600</v>
       </c>
       <c r="E10" s="3">
-        <v>99200</v>
+        <v>102300</v>
       </c>
       <c r="F10" s="3">
-        <v>457600</v>
+        <v>472200</v>
       </c>
       <c r="G10" s="3">
-        <v>711500</v>
+        <v>734100</v>
       </c>
       <c r="H10" s="3">
-        <v>868600</v>
+        <v>896200</v>
       </c>
       <c r="I10" s="3">
-        <v>291300</v>
+        <v>300500</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -917,19 +917,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="3">
-        <v>76700</v>
+        <v>79100</v>
       </c>
       <c r="F14" s="3">
-        <v>21600</v>
+        <v>22200</v>
       </c>
       <c r="G14" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H14" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>118500</v>
+        <v>122300</v>
       </c>
       <c r="E17" s="3">
-        <v>430000</v>
+        <v>443700</v>
       </c>
       <c r="F17" s="3">
-        <v>966100</v>
+        <v>996700</v>
       </c>
       <c r="G17" s="3">
-        <v>469300</v>
+        <v>484200</v>
       </c>
       <c r="H17" s="3">
-        <v>811400</v>
+        <v>837200</v>
       </c>
       <c r="I17" s="3">
-        <v>259500</v>
+        <v>267700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-14500</v>
+        <v>-15000</v>
       </c>
       <c r="E18" s="3">
-        <v>-255200</v>
+        <v>-263300</v>
       </c>
       <c r="F18" s="3">
-        <v>-350100</v>
+        <v>-361200</v>
       </c>
       <c r="G18" s="3">
-        <v>304100</v>
+        <v>313800</v>
       </c>
       <c r="H18" s="3">
-        <v>127000</v>
+        <v>131000</v>
       </c>
       <c r="I18" s="3">
-        <v>55200</v>
+        <v>57000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13500</v>
+        <v>-14000</v>
       </c>
       <c r="E20" s="3">
-        <v>19700</v>
+        <v>20300</v>
       </c>
       <c r="F20" s="3">
-        <v>41000</v>
+        <v>42300</v>
       </c>
       <c r="G20" s="3">
-        <v>32600</v>
+        <v>33600</v>
       </c>
       <c r="H20" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="I20" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-23700</v>
+        <v>-24400</v>
       </c>
       <c r="E21" s="3">
-        <v>-232100</v>
+        <v>-239500</v>
       </c>
       <c r="F21" s="3">
-        <v>-303900</v>
+        <v>-313500</v>
       </c>
       <c r="G21" s="3">
-        <v>339300</v>
+        <v>350100</v>
       </c>
       <c r="H21" s="3">
-        <v>142400</v>
+        <v>147000</v>
       </c>
       <c r="I21" s="3">
-        <v>59400</v>
+        <v>61300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-28100</v>
+        <v>-28900</v>
       </c>
       <c r="E23" s="3">
-        <v>-235500</v>
+        <v>-242900</v>
       </c>
       <c r="F23" s="3">
-        <v>-309100</v>
+        <v>-318900</v>
       </c>
       <c r="G23" s="3">
-        <v>336700</v>
+        <v>347400</v>
       </c>
       <c r="H23" s="3">
-        <v>140800</v>
+        <v>145300</v>
       </c>
       <c r="I23" s="3">
-        <v>58100</v>
+        <v>60000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E24" s="3">
-        <v>74900</v>
+        <v>77300</v>
       </c>
       <c r="F24" s="3">
-        <v>-24300</v>
+        <v>-25100</v>
       </c>
       <c r="G24" s="3">
-        <v>56000</v>
+        <v>57800</v>
       </c>
       <c r="H24" s="3">
-        <v>49100</v>
+        <v>50600</v>
       </c>
       <c r="I24" s="3">
-        <v>37700</v>
+        <v>38900</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31800</v>
+        <v>-32800</v>
       </c>
       <c r="E26" s="3">
-        <v>-310400</v>
+        <v>-320300</v>
       </c>
       <c r="F26" s="3">
-        <v>-284800</v>
+        <v>-293800</v>
       </c>
       <c r="G26" s="3">
-        <v>280700</v>
+        <v>289600</v>
       </c>
       <c r="H26" s="3">
-        <v>91700</v>
+        <v>94700</v>
       </c>
       <c r="I26" s="3">
-        <v>20400</v>
+        <v>21100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-32700</v>
+        <v>-33700</v>
       </c>
       <c r="E27" s="3">
-        <v>-314400</v>
+        <v>-324400</v>
       </c>
       <c r="F27" s="3">
-        <v>-302100</v>
+        <v>-311700</v>
       </c>
       <c r="G27" s="3">
-        <v>239400</v>
+        <v>247000</v>
       </c>
       <c r="H27" s="3">
-        <v>55900</v>
+        <v>57600</v>
       </c>
       <c r="I27" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="E32" s="3">
-        <v>-19700</v>
+        <v>-20300</v>
       </c>
       <c r="F32" s="3">
-        <v>-41000</v>
+        <v>-42300</v>
       </c>
       <c r="G32" s="3">
-        <v>-32600</v>
+        <v>-33600</v>
       </c>
       <c r="H32" s="3">
-        <v>-13800</v>
+        <v>-14200</v>
       </c>
       <c r="I32" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-32700</v>
+        <v>-33700</v>
       </c>
       <c r="E33" s="3">
-        <v>-314400</v>
+        <v>-324400</v>
       </c>
       <c r="F33" s="3">
-        <v>-302100</v>
+        <v>-311700</v>
       </c>
       <c r="G33" s="3">
-        <v>239400</v>
+        <v>247000</v>
       </c>
       <c r="H33" s="3">
-        <v>55900</v>
+        <v>57600</v>
       </c>
       <c r="I33" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-32700</v>
+        <v>-33700</v>
       </c>
       <c r="E35" s="3">
-        <v>-314400</v>
+        <v>-324400</v>
       </c>
       <c r="F35" s="3">
-        <v>-302100</v>
+        <v>-311700</v>
       </c>
       <c r="G35" s="3">
-        <v>239400</v>
+        <v>247000</v>
       </c>
       <c r="H35" s="3">
-        <v>55900</v>
+        <v>57600</v>
       </c>
       <c r="I35" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>340100</v>
+        <v>350900</v>
       </c>
       <c r="E41" s="3">
-        <v>379600</v>
+        <v>391600</v>
       </c>
       <c r="F41" s="3">
-        <v>652000</v>
+        <v>672700</v>
       </c>
       <c r="G41" s="3">
-        <v>761300</v>
+        <v>785500</v>
       </c>
       <c r="H41" s="3">
-        <v>525900</v>
+        <v>542600</v>
       </c>
       <c r="I41" s="3">
-        <v>172400</v>
+        <v>177900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27300</v>
+        <v>28200</v>
       </c>
       <c r="E43" s="3">
-        <v>24800</v>
+        <v>25600</v>
       </c>
       <c r="F43" s="3">
-        <v>65900</v>
+        <v>68000</v>
       </c>
       <c r="G43" s="3">
-        <v>67600</v>
+        <v>69700</v>
       </c>
       <c r="H43" s="3">
-        <v>57300</v>
+        <v>59100</v>
       </c>
       <c r="I43" s="3">
-        <v>40400</v>
+        <v>41600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>92600</v>
+        <v>95600</v>
       </c>
       <c r="E45" s="3">
-        <v>92600</v>
+        <v>95500</v>
       </c>
       <c r="F45" s="3">
-        <v>136600</v>
+        <v>140900</v>
       </c>
       <c r="G45" s="3">
-        <v>53500</v>
+        <v>55200</v>
       </c>
       <c r="H45" s="3">
-        <v>54600</v>
+        <v>56300</v>
       </c>
       <c r="I45" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>167400</v>
+        <v>172700</v>
       </c>
       <c r="E47" s="3">
-        <v>154000</v>
+        <v>158900</v>
       </c>
       <c r="F47" s="3">
-        <v>217600</v>
+        <v>224500</v>
       </c>
       <c r="G47" s="3">
-        <v>331500</v>
+        <v>342000</v>
       </c>
       <c r="H47" s="3">
-        <v>186000</v>
+        <v>191900</v>
       </c>
       <c r="I47" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="E48" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="F48" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="G48" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="H48" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="I48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>20900</v>
+      </c>
+      <c r="G49" s="3">
         <v>8300</v>
       </c>
-      <c r="E49" s="3">
-        <v>9300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>20300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>8100</v>
-      </c>
       <c r="H49" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="I49" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46500</v>
+        <v>48000</v>
       </c>
       <c r="E52" s="3">
-        <v>59000</v>
+        <v>60900</v>
       </c>
       <c r="F52" s="3">
-        <v>89700</v>
+        <v>92600</v>
       </c>
       <c r="G52" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="H52" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="I52" s="3">
-        <v>27900</v>
+        <v>28800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>702900</v>
+        <v>725200</v>
       </c>
       <c r="E54" s="3">
-        <v>749800</v>
+        <v>773600</v>
       </c>
       <c r="F54" s="3">
-        <v>1236100</v>
+        <v>1275400</v>
       </c>
       <c r="G54" s="3">
-        <v>1267800</v>
+        <v>1308100</v>
       </c>
       <c r="H54" s="3">
-        <v>873600</v>
+        <v>901300</v>
       </c>
       <c r="I54" s="3">
-        <v>299800</v>
+        <v>309300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="E57" s="3">
-        <v>21200</v>
+        <v>21900</v>
       </c>
       <c r="F57" s="3">
-        <v>34600</v>
+        <v>35700</v>
       </c>
       <c r="G57" s="3">
-        <v>21700</v>
+        <v>22400</v>
       </c>
       <c r="H57" s="3">
-        <v>21300</v>
+        <v>21900</v>
       </c>
       <c r="I57" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>94300</v>
+        <v>97300</v>
       </c>
       <c r="E59" s="3">
-        <v>121400</v>
+        <v>125300</v>
       </c>
       <c r="F59" s="3">
-        <v>195000</v>
+        <v>201200</v>
       </c>
       <c r="G59" s="3">
-        <v>122000</v>
+        <v>125900</v>
       </c>
       <c r="H59" s="3">
-        <v>162400</v>
+        <v>167500</v>
       </c>
       <c r="I59" s="3">
-        <v>106400</v>
+        <v>109800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2461,7 +2461,7 @@
         <v>1300</v>
       </c>
       <c r="F62" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G62" s="3">
         <v>1300</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>127400</v>
+        <v>131500</v>
       </c>
       <c r="E66" s="3">
-        <v>169500</v>
+        <v>174900</v>
       </c>
       <c r="F66" s="3">
-        <v>361900</v>
+        <v>373400</v>
       </c>
       <c r="G66" s="3">
-        <v>206200</v>
+        <v>212700</v>
       </c>
       <c r="H66" s="3">
-        <v>246000</v>
+        <v>253800</v>
       </c>
       <c r="I66" s="3">
-        <v>132500</v>
+        <v>136700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>192400</v>
+        <v>198500</v>
       </c>
       <c r="H70" s="3">
-        <v>114200</v>
+        <v>117800</v>
       </c>
       <c r="I70" s="3">
-        <v>30000</v>
+        <v>30900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-221500</v>
+        <v>-228500</v>
       </c>
       <c r="E72" s="3">
-        <v>-188800</v>
+        <v>-194800</v>
       </c>
       <c r="F72" s="3">
-        <v>131900</v>
+        <v>136000</v>
       </c>
       <c r="G72" s="3">
-        <v>434000</v>
+        <v>447700</v>
       </c>
       <c r="H72" s="3">
-        <v>160500</v>
+        <v>165600</v>
       </c>
       <c r="I72" s="3">
-        <v>98400</v>
+        <v>101500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>575500</v>
+        <v>593800</v>
       </c>
       <c r="E76" s="3">
-        <v>580300</v>
+        <v>598700</v>
       </c>
       <c r="F76" s="3">
-        <v>874300</v>
+        <v>902000</v>
       </c>
       <c r="G76" s="3">
-        <v>869300</v>
+        <v>896900</v>
       </c>
       <c r="H76" s="3">
-        <v>513400</v>
+        <v>529800</v>
       </c>
       <c r="I76" s="3">
-        <v>137300</v>
+        <v>141700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-32700</v>
+        <v>-33700</v>
       </c>
       <c r="E81" s="3">
-        <v>-314400</v>
+        <v>-324400</v>
       </c>
       <c r="F81" s="3">
-        <v>-302100</v>
+        <v>-311700</v>
       </c>
       <c r="G81" s="3">
-        <v>239400</v>
+        <v>247000</v>
       </c>
       <c r="H81" s="3">
-        <v>55900</v>
+        <v>57600</v>
       </c>
       <c r="I81" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F83" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G83" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H83" s="3">
         <v>1700</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-31900</v>
+        <v>-33000</v>
       </c>
       <c r="E89" s="3">
-        <v>-242800</v>
+        <v>-250600</v>
       </c>
       <c r="F89" s="3">
-        <v>-59700</v>
+        <v>-61600</v>
       </c>
       <c r="G89" s="3">
-        <v>326500</v>
+        <v>336900</v>
       </c>
       <c r="H89" s="3">
-        <v>398900</v>
+        <v>411600</v>
       </c>
       <c r="I89" s="3">
-        <v>57600</v>
+        <v>59500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3378,16 +3378,16 @@
         <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="G91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-6800</v>
       </c>
-      <c r="H91" s="3">
-        <v>-6600</v>
-      </c>
       <c r="I91" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-44800</v>
+        <v>-46200</v>
       </c>
       <c r="E94" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="F94" s="3">
-        <v>-98500</v>
+        <v>-101600</v>
       </c>
       <c r="G94" s="3">
-        <v>-172200</v>
+        <v>-177600</v>
       </c>
       <c r="H94" s="3">
-        <v>-140800</v>
+        <v>-145300</v>
       </c>
       <c r="I94" s="3">
-        <v>-31000</v>
+        <v>-32000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>27800</v>
+        <v>28700</v>
       </c>
       <c r="E100" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F100" s="3">
-        <v>65700</v>
+        <v>67800</v>
       </c>
       <c r="G100" s="3">
-        <v>76000</v>
+        <v>78400</v>
       </c>
       <c r="H100" s="3">
-        <v>78400</v>
+        <v>80900</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -3712,7 +3712,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>700</v>
       </c>
       <c r="G101" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H101" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="I101" s="3">
         <v>1800</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-52600</v>
+        <v>-54300</v>
       </c>
       <c r="E102" s="3">
-        <v>-235500</v>
+        <v>-243000</v>
       </c>
       <c r="F102" s="3">
-        <v>-91800</v>
+        <v>-94700</v>
       </c>
       <c r="G102" s="3">
-        <v>235300</v>
+        <v>242800</v>
       </c>
       <c r="H102" s="3">
-        <v>333300</v>
+        <v>343900</v>
       </c>
       <c r="I102" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>JFU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>107300</v>
+        <v>77400</v>
       </c>
       <c r="E8" s="3">
-        <v>180400</v>
+        <v>103000</v>
       </c>
       <c r="F8" s="3">
-        <v>635500</v>
+        <v>173100</v>
       </c>
       <c r="G8" s="3">
-        <v>798000</v>
+        <v>609700</v>
       </c>
       <c r="H8" s="3">
-        <v>968300</v>
+        <v>765600</v>
       </c>
       <c r="I8" s="3">
-        <v>324700</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>928900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>311500</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6800</v>
+        <v>15900</v>
       </c>
       <c r="E9" s="3">
-        <v>78100</v>
+        <v>6500</v>
       </c>
       <c r="F9" s="3">
-        <v>163400</v>
+        <v>74900</v>
       </c>
       <c r="G9" s="3">
-        <v>63900</v>
+        <v>156700</v>
       </c>
       <c r="H9" s="3">
-        <v>72100</v>
+        <v>61300</v>
       </c>
       <c r="I9" s="3">
-        <v>24100</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>69200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>23200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,32 +792,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100600</v>
+        <v>61500</v>
       </c>
       <c r="E10" s="3">
-        <v>102300</v>
+        <v>96500</v>
       </c>
       <c r="F10" s="3">
-        <v>472200</v>
+        <v>98200</v>
       </c>
       <c r="G10" s="3">
-        <v>734100</v>
+        <v>453000</v>
       </c>
       <c r="H10" s="3">
-        <v>896200</v>
+        <v>704300</v>
       </c>
       <c r="I10" s="3">
-        <v>300500</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>859700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>288300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,32 +926,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5000</v>
+        <v>64000</v>
       </c>
       <c r="E14" s="3">
-        <v>79100</v>
+        <v>4800</v>
       </c>
       <c r="F14" s="3">
-        <v>22200</v>
+        <v>75900</v>
       </c>
       <c r="G14" s="3">
-        <v>3400</v>
+        <v>21300</v>
       </c>
       <c r="H14" s="3">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -946,9 +965,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>122300</v>
+        <v>162100</v>
       </c>
       <c r="E17" s="3">
-        <v>443700</v>
+        <v>117300</v>
       </c>
       <c r="F17" s="3">
-        <v>996700</v>
+        <v>425600</v>
       </c>
       <c r="G17" s="3">
-        <v>484200</v>
+        <v>956200</v>
       </c>
       <c r="H17" s="3">
-        <v>837200</v>
+        <v>464600</v>
       </c>
       <c r="I17" s="3">
-        <v>267700</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>803200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>256800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15000</v>
+        <v>-84800</v>
       </c>
       <c r="E18" s="3">
-        <v>-263300</v>
+        <v>-14400</v>
       </c>
       <c r="F18" s="3">
-        <v>-361200</v>
+        <v>-252600</v>
       </c>
       <c r="G18" s="3">
-        <v>313800</v>
+        <v>-346500</v>
       </c>
       <c r="H18" s="3">
-        <v>131000</v>
+        <v>301000</v>
       </c>
       <c r="I18" s="3">
-        <v>57000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>125700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>54600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,31 +1116,32 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14000</v>
+        <v>1700</v>
       </c>
       <c r="E20" s="3">
-        <v>20300</v>
+        <v>-13400</v>
       </c>
       <c r="F20" s="3">
-        <v>42300</v>
+        <v>19500</v>
       </c>
       <c r="G20" s="3">
-        <v>33600</v>
+        <v>40600</v>
       </c>
       <c r="H20" s="3">
-        <v>14200</v>
+        <v>32200</v>
       </c>
       <c r="I20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>13600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2900</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1119,32 +1152,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-24400</v>
+        <v>-80200</v>
       </c>
       <c r="E21" s="3">
-        <v>-239500</v>
+        <v>-23400</v>
       </c>
       <c r="F21" s="3">
-        <v>-313500</v>
+        <v>-229700</v>
       </c>
       <c r="G21" s="3">
-        <v>350100</v>
+        <v>-300800</v>
       </c>
       <c r="H21" s="3">
-        <v>147000</v>
+        <v>335800</v>
       </c>
       <c r="I21" s="3">
-        <v>61300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>141000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>58800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,9 +1191,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,32 +1230,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-28900</v>
+        <v>-83000</v>
       </c>
       <c r="E23" s="3">
-        <v>-242900</v>
+        <v>-27800</v>
       </c>
       <c r="F23" s="3">
-        <v>-318900</v>
+        <v>-233100</v>
       </c>
       <c r="G23" s="3">
-        <v>347400</v>
+        <v>-305900</v>
       </c>
       <c r="H23" s="3">
-        <v>145300</v>
+        <v>333300</v>
       </c>
       <c r="I23" s="3">
-        <v>60000</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>139400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>57600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,32 +1269,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="E24" s="3">
-        <v>77300</v>
+        <v>3700</v>
       </c>
       <c r="F24" s="3">
-        <v>-25100</v>
+        <v>74200</v>
       </c>
       <c r="G24" s="3">
-        <v>57800</v>
+        <v>-24100</v>
       </c>
       <c r="H24" s="3">
-        <v>50600</v>
+        <v>55400</v>
       </c>
       <c r="I24" s="3">
-        <v>38900</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>48600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>37400</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-32800</v>
+        <v>-84600</v>
       </c>
       <c r="E26" s="3">
-        <v>-320300</v>
+        <v>-31500</v>
       </c>
       <c r="F26" s="3">
-        <v>-293800</v>
+        <v>-307200</v>
       </c>
       <c r="G26" s="3">
-        <v>289600</v>
+        <v>-281900</v>
       </c>
       <c r="H26" s="3">
-        <v>94700</v>
+        <v>277800</v>
       </c>
       <c r="I26" s="3">
-        <v>21100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>90800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>20200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33700</v>
+        <v>-81900</v>
       </c>
       <c r="E27" s="3">
-        <v>-324400</v>
+        <v>-32400</v>
       </c>
       <c r="F27" s="3">
-        <v>-311700</v>
+        <v>-311200</v>
       </c>
       <c r="G27" s="3">
-        <v>247000</v>
+        <v>-299000</v>
       </c>
       <c r="H27" s="3">
-        <v>57600</v>
+        <v>237000</v>
       </c>
       <c r="I27" s="3">
-        <v>20400</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>55300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>19600</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,32 +1581,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14000</v>
+        <v>-1700</v>
       </c>
       <c r="E32" s="3">
-        <v>-20300</v>
+        <v>13400</v>
       </c>
       <c r="F32" s="3">
-        <v>-42300</v>
+        <v>-19500</v>
       </c>
       <c r="G32" s="3">
-        <v>-33600</v>
+        <v>-40600</v>
       </c>
       <c r="H32" s="3">
-        <v>-14200</v>
+        <v>-32200</v>
       </c>
       <c r="I32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-13600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2900</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33700</v>
+        <v>-81900</v>
       </c>
       <c r="E33" s="3">
-        <v>-324400</v>
+        <v>-32400</v>
       </c>
       <c r="F33" s="3">
-        <v>-311700</v>
+        <v>-311200</v>
       </c>
       <c r="G33" s="3">
-        <v>247000</v>
+        <v>-299000</v>
       </c>
       <c r="H33" s="3">
-        <v>57600</v>
+        <v>237000</v>
       </c>
       <c r="I33" s="3">
-        <v>20400</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>55300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>19600</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33700</v>
+        <v>-81900</v>
       </c>
       <c r="E35" s="3">
-        <v>-324400</v>
+        <v>-32400</v>
       </c>
       <c r="F35" s="3">
-        <v>-311700</v>
+        <v>-311200</v>
       </c>
       <c r="G35" s="3">
-        <v>247000</v>
+        <v>-299000</v>
       </c>
       <c r="H35" s="3">
-        <v>57600</v>
+        <v>237000</v>
       </c>
       <c r="I35" s="3">
-        <v>20400</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>55300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>19600</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>350900</v>
+        <v>335300</v>
       </c>
       <c r="E41" s="3">
-        <v>391600</v>
+        <v>336700</v>
       </c>
       <c r="F41" s="3">
-        <v>672700</v>
+        <v>375700</v>
       </c>
       <c r="G41" s="3">
-        <v>785500</v>
+        <v>645400</v>
       </c>
       <c r="H41" s="3">
-        <v>542600</v>
+        <v>753500</v>
       </c>
       <c r="I41" s="3">
-        <v>177900</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>520500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>170600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,9 +1854,12 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,9 +1893,12 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1814,22 +1906,22 @@
         <v>28200</v>
       </c>
       <c r="E43" s="3">
-        <v>25600</v>
+        <v>27000</v>
       </c>
       <c r="F43" s="3">
-        <v>68000</v>
+        <v>24500</v>
       </c>
       <c r="G43" s="3">
-        <v>69700</v>
+        <v>65200</v>
       </c>
       <c r="H43" s="3">
-        <v>59100</v>
+        <v>66900</v>
       </c>
       <c r="I43" s="3">
-        <v>41600</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>56700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>39900</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,32 +1971,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>95600</v>
+        <v>30500</v>
       </c>
       <c r="E45" s="3">
-        <v>95500</v>
+        <v>91700</v>
       </c>
       <c r="F45" s="3">
-        <v>140900</v>
+        <v>91700</v>
       </c>
       <c r="G45" s="3">
-        <v>55200</v>
+        <v>135200</v>
       </c>
       <c r="H45" s="3">
-        <v>56300</v>
+        <v>52900</v>
       </c>
       <c r="I45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>54000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1500</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1912,9 +2010,12 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1948,32 +2049,35 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>172700</v>
+        <v>152900</v>
       </c>
       <c r="E47" s="3">
-        <v>158900</v>
+        <v>165700</v>
       </c>
       <c r="F47" s="3">
-        <v>224500</v>
+        <v>152400</v>
       </c>
       <c r="G47" s="3">
-        <v>342000</v>
+        <v>215300</v>
       </c>
       <c r="H47" s="3">
-        <v>191900</v>
+        <v>328100</v>
       </c>
       <c r="I47" s="3">
-        <v>34000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>184100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>32600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1984,32 +2088,35 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8900</v>
+        <v>10800</v>
       </c>
       <c r="E48" s="3">
-        <v>13200</v>
+        <v>8600</v>
       </c>
       <c r="F48" s="3">
-        <v>33300</v>
+        <v>12700</v>
       </c>
       <c r="G48" s="3">
-        <v>12400</v>
+        <v>32000</v>
       </c>
       <c r="H48" s="3">
-        <v>7900</v>
+        <v>11900</v>
       </c>
       <c r="I48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2020,32 +2127,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="E49" s="3">
-        <v>9600</v>
+        <v>8200</v>
       </c>
       <c r="F49" s="3">
-        <v>20900</v>
+        <v>9200</v>
       </c>
       <c r="G49" s="3">
-        <v>8300</v>
+        <v>20100</v>
       </c>
       <c r="H49" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="I49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>8100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3900</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,32 +2244,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48000</v>
+        <v>27400</v>
       </c>
       <c r="E52" s="3">
-        <v>60900</v>
+        <v>46000</v>
       </c>
       <c r="F52" s="3">
-        <v>92600</v>
+        <v>58400</v>
       </c>
       <c r="G52" s="3">
-        <v>12100</v>
+        <v>88800</v>
       </c>
       <c r="H52" s="3">
-        <v>16100</v>
+        <v>11600</v>
       </c>
       <c r="I52" s="3">
-        <v>28800</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>15400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>27600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>725200</v>
+        <v>593900</v>
       </c>
       <c r="E54" s="3">
-        <v>773600</v>
+        <v>695700</v>
       </c>
       <c r="F54" s="3">
-        <v>1275400</v>
+        <v>742200</v>
       </c>
       <c r="G54" s="3">
-        <v>1308100</v>
+        <v>1223500</v>
       </c>
       <c r="H54" s="3">
-        <v>901300</v>
+        <v>1254900</v>
       </c>
       <c r="I54" s="3">
-        <v>309300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>864700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>296700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,31 +2398,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13500</v>
+        <v>3600</v>
       </c>
       <c r="E57" s="3">
-        <v>21900</v>
+        <v>12900</v>
       </c>
       <c r="F57" s="3">
-        <v>35700</v>
+        <v>21000</v>
       </c>
       <c r="G57" s="3">
-        <v>22400</v>
+        <v>34300</v>
       </c>
       <c r="H57" s="3">
-        <v>21900</v>
+        <v>21400</v>
       </c>
       <c r="I57" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>21100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>7300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2304,9 +2434,12 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2340,32 +2473,35 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>97300</v>
+        <v>76400</v>
       </c>
       <c r="E59" s="3">
-        <v>125300</v>
+        <v>93400</v>
       </c>
       <c r="F59" s="3">
-        <v>201200</v>
+        <v>120200</v>
       </c>
       <c r="G59" s="3">
-        <v>125900</v>
+        <v>193000</v>
       </c>
       <c r="H59" s="3">
-        <v>167500</v>
+        <v>120700</v>
       </c>
       <c r="I59" s="3">
-        <v>109800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>160700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>105400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,9 +2512,12 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2412,9 +2551,12 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,33 +2590,36 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
-        <v>2500</v>
-      </c>
       <c r="G62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>131500</v>
+        <v>90200</v>
       </c>
       <c r="E66" s="3">
-        <v>174900</v>
+        <v>126100</v>
       </c>
       <c r="F66" s="3">
-        <v>373400</v>
+        <v>167800</v>
       </c>
       <c r="G66" s="3">
-        <v>212700</v>
+        <v>358200</v>
       </c>
       <c r="H66" s="3">
-        <v>253800</v>
+        <v>204100</v>
       </c>
       <c r="I66" s="3">
-        <v>136700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>243400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>131100</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>198500</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>117800</v>
+        <v>190500</v>
       </c>
       <c r="I70" s="3">
-        <v>30900</v>
+        <v>113000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>29700</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,32 +2958,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-228500</v>
+        <v>-306000</v>
       </c>
       <c r="E72" s="3">
-        <v>-194800</v>
+        <v>-219300</v>
       </c>
       <c r="F72" s="3">
-        <v>136000</v>
+        <v>-186900</v>
       </c>
       <c r="G72" s="3">
-        <v>447700</v>
+        <v>130500</v>
       </c>
       <c r="H72" s="3">
-        <v>165600</v>
+        <v>429500</v>
       </c>
       <c r="I72" s="3">
-        <v>101500</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>158900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>97400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>593800</v>
+        <v>503800</v>
       </c>
       <c r="E76" s="3">
-        <v>598700</v>
+        <v>569600</v>
       </c>
       <c r="F76" s="3">
-        <v>902000</v>
+        <v>574300</v>
       </c>
       <c r="G76" s="3">
-        <v>896900</v>
+        <v>865400</v>
       </c>
       <c r="H76" s="3">
-        <v>529800</v>
+        <v>860300</v>
       </c>
       <c r="I76" s="3">
-        <v>141700</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>508200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>135900</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33700</v>
+        <v>-81900</v>
       </c>
       <c r="E81" s="3">
-        <v>-324400</v>
+        <v>-32400</v>
       </c>
       <c r="F81" s="3">
-        <v>-311700</v>
+        <v>-311200</v>
       </c>
       <c r="G81" s="3">
-        <v>247000</v>
+        <v>-299000</v>
       </c>
       <c r="H81" s="3">
-        <v>57600</v>
+        <v>237000</v>
       </c>
       <c r="I81" s="3">
-        <v>20400</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>55300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>19600</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,32 +3295,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4500</v>
+        <v>2900</v>
       </c>
       <c r="E83" s="3">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="F83" s="3">
-        <v>5400</v>
+        <v>3300</v>
       </c>
       <c r="G83" s="3">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="H83" s="3">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="I83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-33000</v>
+        <v>8700</v>
       </c>
       <c r="E89" s="3">
-        <v>-250600</v>
+        <v>-31600</v>
       </c>
       <c r="F89" s="3">
-        <v>-61600</v>
+        <v>-240400</v>
       </c>
       <c r="G89" s="3">
-        <v>336900</v>
+        <v>-59100</v>
       </c>
       <c r="H89" s="3">
-        <v>411600</v>
+        <v>323200</v>
       </c>
       <c r="I89" s="3">
-        <v>59500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>394800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>57000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,31 +3585,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-8100</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>-7000</v>
+        <v>-7800</v>
       </c>
       <c r="H91" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-6600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-46200</v>
+        <v>-38300</v>
       </c>
       <c r="E94" s="3">
-        <v>5700</v>
+        <v>-44300</v>
       </c>
       <c r="F94" s="3">
-        <v>-101600</v>
+        <v>5400</v>
       </c>
       <c r="G94" s="3">
-        <v>-177600</v>
+        <v>-97500</v>
       </c>
       <c r="H94" s="3">
-        <v>-145300</v>
+        <v>-170400</v>
       </c>
       <c r="I94" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-139400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-30700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,33 +3911,36 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>28700</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>1900</v>
+        <v>27500</v>
       </c>
       <c r="F100" s="3">
-        <v>67800</v>
+        <v>1800</v>
       </c>
       <c r="G100" s="3">
-        <v>78400</v>
+        <v>65000</v>
       </c>
       <c r="H100" s="3">
-        <v>80900</v>
+        <v>75200</v>
       </c>
       <c r="I100" s="3">
+        <v>77600</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3705,33 +3950,36 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3800</v>
+        <v>14800</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-3700</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
-        <v>5100</v>
-      </c>
       <c r="H101" s="3">
-        <v>-3300</v>
+        <v>4900</v>
       </c>
       <c r="I101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-54300</v>
+        <v>-14800</v>
       </c>
       <c r="E102" s="3">
-        <v>-243000</v>
+        <v>-52100</v>
       </c>
       <c r="F102" s="3">
-        <v>-94700</v>
+        <v>-233100</v>
       </c>
       <c r="G102" s="3">
-        <v>242800</v>
+        <v>-90900</v>
       </c>
       <c r="H102" s="3">
-        <v>343900</v>
+        <v>232900</v>
       </c>
       <c r="I102" s="3">
-        <v>29400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>329900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>28200</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JFU_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>77400</v>
+        <v>77600</v>
       </c>
       <c r="E8" s="3">
-        <v>103000</v>
+        <v>103200</v>
       </c>
       <c r="F8" s="3">
-        <v>173100</v>
+        <v>173400</v>
       </c>
       <c r="G8" s="3">
-        <v>609700</v>
+        <v>611000</v>
       </c>
       <c r="H8" s="3">
-        <v>765600</v>
+        <v>767200</v>
       </c>
       <c r="I8" s="3">
-        <v>928900</v>
+        <v>930900</v>
       </c>
       <c r="J8" s="3">
-        <v>311500</v>
+        <v>312200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -769,16 +769,16 @@
         <v>6500</v>
       </c>
       <c r="F9" s="3">
-        <v>74900</v>
+        <v>75000</v>
       </c>
       <c r="G9" s="3">
-        <v>156700</v>
+        <v>157100</v>
       </c>
       <c r="H9" s="3">
-        <v>61300</v>
+        <v>61400</v>
       </c>
       <c r="I9" s="3">
-        <v>69200</v>
+        <v>69300</v>
       </c>
       <c r="J9" s="3">
         <v>23200</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>61500</v>
+        <v>61600</v>
       </c>
       <c r="E10" s="3">
-        <v>96500</v>
+        <v>96700</v>
       </c>
       <c r="F10" s="3">
-        <v>98200</v>
+        <v>98400</v>
       </c>
       <c r="G10" s="3">
-        <v>453000</v>
+        <v>453900</v>
       </c>
       <c r="H10" s="3">
-        <v>704300</v>
+        <v>705800</v>
       </c>
       <c r="I10" s="3">
-        <v>859700</v>
+        <v>861600</v>
       </c>
       <c r="J10" s="3">
-        <v>288300</v>
+        <v>289000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -936,16 +936,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>64000</v>
+        <v>64200</v>
       </c>
       <c r="E14" s="3">
         <v>4800</v>
       </c>
       <c r="F14" s="3">
-        <v>75900</v>
+        <v>76100</v>
       </c>
       <c r="G14" s="3">
-        <v>21300</v>
+        <v>21400</v>
       </c>
       <c r="H14" s="3">
         <v>3200</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>162100</v>
+        <v>162500</v>
       </c>
       <c r="E17" s="3">
-        <v>117300</v>
+        <v>117600</v>
       </c>
       <c r="F17" s="3">
-        <v>425600</v>
+        <v>426500</v>
       </c>
       <c r="G17" s="3">
-        <v>956200</v>
+        <v>958300</v>
       </c>
       <c r="H17" s="3">
-        <v>464600</v>
+        <v>465600</v>
       </c>
       <c r="I17" s="3">
-        <v>803200</v>
+        <v>804900</v>
       </c>
       <c r="J17" s="3">
-        <v>256800</v>
+        <v>257400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-84800</v>
+        <v>-84900</v>
       </c>
       <c r="E18" s="3">
         <v>-14400</v>
       </c>
       <c r="F18" s="3">
-        <v>-252600</v>
+        <v>-253100</v>
       </c>
       <c r="G18" s="3">
-        <v>-346500</v>
+        <v>-347300</v>
       </c>
       <c r="H18" s="3">
-        <v>301000</v>
+        <v>301700</v>
       </c>
       <c r="I18" s="3">
-        <v>125700</v>
+        <v>126000</v>
       </c>
       <c r="J18" s="3">
-        <v>54600</v>
+        <v>54800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1132,13 +1132,13 @@
         <v>19500</v>
       </c>
       <c r="G20" s="3">
-        <v>40600</v>
+        <v>40700</v>
       </c>
       <c r="H20" s="3">
-        <v>32200</v>
+        <v>32300</v>
       </c>
       <c r="I20" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="J20" s="3">
         <v>2900</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-80200</v>
+        <v>-80300</v>
       </c>
       <c r="E21" s="3">
-        <v>-23400</v>
+        <v>-23500</v>
       </c>
       <c r="F21" s="3">
-        <v>-229700</v>
+        <v>-230200</v>
       </c>
       <c r="G21" s="3">
-        <v>-300800</v>
+        <v>-301400</v>
       </c>
       <c r="H21" s="3">
-        <v>335800</v>
+        <v>336600</v>
       </c>
       <c r="I21" s="3">
-        <v>141000</v>
+        <v>141300</v>
       </c>
       <c r="J21" s="3">
-        <v>58800</v>
+        <v>59000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-83000</v>
+        <v>-83200</v>
       </c>
       <c r="E23" s="3">
         <v>-27800</v>
       </c>
       <c r="F23" s="3">
-        <v>-233100</v>
+        <v>-233600</v>
       </c>
       <c r="G23" s="3">
-        <v>-305900</v>
+        <v>-306600</v>
       </c>
       <c r="H23" s="3">
-        <v>333300</v>
+        <v>334000</v>
       </c>
       <c r="I23" s="3">
-        <v>139400</v>
+        <v>139700</v>
       </c>
       <c r="J23" s="3">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1285,16 +1285,16 @@
         <v>3700</v>
       </c>
       <c r="F24" s="3">
-        <v>74200</v>
+        <v>74300</v>
       </c>
       <c r="G24" s="3">
         <v>-24100</v>
       </c>
       <c r="H24" s="3">
-        <v>55400</v>
+        <v>55600</v>
       </c>
       <c r="I24" s="3">
-        <v>48600</v>
+        <v>48700</v>
       </c>
       <c r="J24" s="3">
         <v>37400</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-84600</v>
+        <v>-84800</v>
       </c>
       <c r="E26" s="3">
         <v>-31500</v>
       </c>
       <c r="F26" s="3">
-        <v>-307200</v>
+        <v>-307900</v>
       </c>
       <c r="G26" s="3">
-        <v>-281900</v>
+        <v>-282500</v>
       </c>
       <c r="H26" s="3">
-        <v>277800</v>
+        <v>278400</v>
       </c>
       <c r="I26" s="3">
-        <v>90800</v>
+        <v>91000</v>
       </c>
       <c r="J26" s="3">
         <v>20200</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-81900</v>
+        <v>-82100</v>
       </c>
       <c r="E27" s="3">
         <v>-32400</v>
       </c>
       <c r="F27" s="3">
-        <v>-311200</v>
+        <v>-311900</v>
       </c>
       <c r="G27" s="3">
-        <v>-299000</v>
+        <v>-299700</v>
       </c>
       <c r="H27" s="3">
-        <v>237000</v>
+        <v>237500</v>
       </c>
       <c r="I27" s="3">
-        <v>55300</v>
+        <v>55400</v>
       </c>
       <c r="J27" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1600,13 +1600,13 @@
         <v>-19500</v>
       </c>
       <c r="G32" s="3">
-        <v>-40600</v>
+        <v>-40700</v>
       </c>
       <c r="H32" s="3">
-        <v>-32200</v>
+        <v>-32300</v>
       </c>
       <c r="I32" s="3">
-        <v>-13600</v>
+        <v>-13700</v>
       </c>
       <c r="J32" s="3">
         <v>-2900</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-81900</v>
+        <v>-82100</v>
       </c>
       <c r="E33" s="3">
         <v>-32400</v>
       </c>
       <c r="F33" s="3">
-        <v>-311200</v>
+        <v>-311900</v>
       </c>
       <c r="G33" s="3">
-        <v>-299000</v>
+        <v>-299700</v>
       </c>
       <c r="H33" s="3">
-        <v>237000</v>
+        <v>237500</v>
       </c>
       <c r="I33" s="3">
-        <v>55300</v>
+        <v>55400</v>
       </c>
       <c r="J33" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-81900</v>
+        <v>-82100</v>
       </c>
       <c r="E35" s="3">
         <v>-32400</v>
       </c>
       <c r="F35" s="3">
-        <v>-311200</v>
+        <v>-311900</v>
       </c>
       <c r="G35" s="3">
-        <v>-299000</v>
+        <v>-299700</v>
       </c>
       <c r="H35" s="3">
-        <v>237000</v>
+        <v>237500</v>
       </c>
       <c r="I35" s="3">
-        <v>55300</v>
+        <v>55400</v>
       </c>
       <c r="J35" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>335300</v>
+        <v>336000</v>
       </c>
       <c r="E41" s="3">
-        <v>336700</v>
+        <v>337400</v>
       </c>
       <c r="F41" s="3">
-        <v>375700</v>
+        <v>376500</v>
       </c>
       <c r="G41" s="3">
-        <v>645400</v>
+        <v>646800</v>
       </c>
       <c r="H41" s="3">
-        <v>753500</v>
+        <v>755200</v>
       </c>
       <c r="I41" s="3">
-        <v>520500</v>
+        <v>521700</v>
       </c>
       <c r="J41" s="3">
-        <v>170600</v>
+        <v>171000</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1906,22 +1906,22 @@
         <v>28200</v>
       </c>
       <c r="E43" s="3">
-        <v>27000</v>
+        <v>27100</v>
       </c>
       <c r="F43" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="G43" s="3">
-        <v>65200</v>
+        <v>65300</v>
       </c>
       <c r="H43" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="I43" s="3">
-        <v>56700</v>
+        <v>56900</v>
       </c>
       <c r="J43" s="3">
-        <v>39900</v>
+        <v>40000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1984,19 +1984,19 @@
         <v>30500</v>
       </c>
       <c r="E45" s="3">
-        <v>91700</v>
+        <v>91900</v>
       </c>
       <c r="F45" s="3">
-        <v>91700</v>
+        <v>91900</v>
       </c>
       <c r="G45" s="3">
-        <v>135200</v>
+        <v>135500</v>
       </c>
       <c r="H45" s="3">
-        <v>52900</v>
+        <v>53000</v>
       </c>
       <c r="I45" s="3">
-        <v>54000</v>
+        <v>54100</v>
       </c>
       <c r="J45" s="3">
         <v>1500</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>152900</v>
+        <v>153200</v>
       </c>
       <c r="E47" s="3">
-        <v>165700</v>
+        <v>166100</v>
       </c>
       <c r="F47" s="3">
-        <v>152400</v>
+        <v>152800</v>
       </c>
       <c r="G47" s="3">
-        <v>215300</v>
+        <v>215800</v>
       </c>
       <c r="H47" s="3">
-        <v>328100</v>
+        <v>328800</v>
       </c>
       <c r="I47" s="3">
-        <v>184100</v>
+        <v>184500</v>
       </c>
       <c r="J47" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2107,7 +2107,7 @@
         <v>12700</v>
       </c>
       <c r="G48" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="H48" s="3">
         <v>11900</v>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="E49" s="3">
         <v>8200</v>
@@ -2152,7 +2152,7 @@
         <v>8000</v>
       </c>
       <c r="I49" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="J49" s="3">
         <v>3900</v>
@@ -2257,13 +2257,13 @@
         <v>27400</v>
       </c>
       <c r="E52" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="F52" s="3">
-        <v>58400</v>
+        <v>58500</v>
       </c>
       <c r="G52" s="3">
-        <v>88800</v>
+        <v>89000</v>
       </c>
       <c r="H52" s="3">
         <v>11600</v>
@@ -2272,7 +2272,7 @@
         <v>15400</v>
       </c>
       <c r="J52" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>593900</v>
+        <v>595200</v>
       </c>
       <c r="E54" s="3">
-        <v>695700</v>
+        <v>697300</v>
       </c>
       <c r="F54" s="3">
-        <v>742200</v>
+        <v>743800</v>
       </c>
       <c r="G54" s="3">
-        <v>1223500</v>
+        <v>1226200</v>
       </c>
       <c r="H54" s="3">
-        <v>1254900</v>
+        <v>1257600</v>
       </c>
       <c r="I54" s="3">
-        <v>864700</v>
+        <v>866600</v>
       </c>
       <c r="J54" s="3">
-        <v>296700</v>
+        <v>297400</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,19 +2405,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E57" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="F57" s="3">
         <v>21000</v>
       </c>
       <c r="G57" s="3">
-        <v>34300</v>
+        <v>34400</v>
       </c>
       <c r="H57" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="I57" s="3">
         <v>21100</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>76400</v>
+        <v>76600</v>
       </c>
       <c r="E59" s="3">
-        <v>93400</v>
+        <v>93600</v>
       </c>
       <c r="F59" s="3">
-        <v>120200</v>
+        <v>120500</v>
       </c>
       <c r="G59" s="3">
-        <v>193000</v>
+        <v>193400</v>
       </c>
       <c r="H59" s="3">
-        <v>120700</v>
+        <v>121000</v>
       </c>
       <c r="I59" s="3">
-        <v>160700</v>
+        <v>161100</v>
       </c>
       <c r="J59" s="3">
-        <v>105400</v>
+        <v>105600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>90200</v>
+        <v>90400</v>
       </c>
       <c r="E66" s="3">
-        <v>126100</v>
+        <v>126400</v>
       </c>
       <c r="F66" s="3">
-        <v>167800</v>
+        <v>168200</v>
       </c>
       <c r="G66" s="3">
-        <v>358200</v>
+        <v>359000</v>
       </c>
       <c r="H66" s="3">
-        <v>204100</v>
+        <v>204500</v>
       </c>
       <c r="I66" s="3">
-        <v>243400</v>
+        <v>244000</v>
       </c>
       <c r="J66" s="3">
-        <v>131100</v>
+        <v>131400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>190500</v>
+        <v>190900</v>
       </c>
       <c r="I70" s="3">
-        <v>113000</v>
+        <v>113300</v>
       </c>
       <c r="J70" s="3">
         <v>29700</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-306000</v>
+        <v>-306700</v>
       </c>
       <c r="E72" s="3">
-        <v>-219300</v>
+        <v>-219700</v>
       </c>
       <c r="F72" s="3">
-        <v>-186900</v>
+        <v>-187300</v>
       </c>
       <c r="G72" s="3">
-        <v>130500</v>
+        <v>130800</v>
       </c>
       <c r="H72" s="3">
-        <v>429500</v>
+        <v>430500</v>
       </c>
       <c r="I72" s="3">
-        <v>158900</v>
+        <v>159200</v>
       </c>
       <c r="J72" s="3">
-        <v>97400</v>
+        <v>97600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>503800</v>
+        <v>504800</v>
       </c>
       <c r="E76" s="3">
-        <v>569600</v>
+        <v>570900</v>
       </c>
       <c r="F76" s="3">
-        <v>574300</v>
+        <v>575600</v>
       </c>
       <c r="G76" s="3">
-        <v>865400</v>
+        <v>867300</v>
       </c>
       <c r="H76" s="3">
-        <v>860300</v>
+        <v>862200</v>
       </c>
       <c r="I76" s="3">
-        <v>508200</v>
+        <v>509300</v>
       </c>
       <c r="J76" s="3">
-        <v>135900</v>
+        <v>136300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-81900</v>
+        <v>-82100</v>
       </c>
       <c r="E81" s="3">
         <v>-32400</v>
       </c>
       <c r="F81" s="3">
-        <v>-311200</v>
+        <v>-311900</v>
       </c>
       <c r="G81" s="3">
-        <v>-299000</v>
+        <v>-299700</v>
       </c>
       <c r="H81" s="3">
-        <v>237000</v>
+        <v>237500</v>
       </c>
       <c r="I81" s="3">
-        <v>55300</v>
+        <v>55400</v>
       </c>
       <c r="J81" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3305,7 +3305,7 @@
         <v>2900</v>
       </c>
       <c r="E83" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F83" s="3">
         <v>3300</v>
@@ -3539,22 +3539,22 @@
         <v>8700</v>
       </c>
       <c r="E89" s="3">
-        <v>-31600</v>
+        <v>-31700</v>
       </c>
       <c r="F89" s="3">
-        <v>-240400</v>
+        <v>-240900</v>
       </c>
       <c r="G89" s="3">
-        <v>-59100</v>
+        <v>-59200</v>
       </c>
       <c r="H89" s="3">
-        <v>323200</v>
+        <v>323900</v>
       </c>
       <c r="I89" s="3">
-        <v>394800</v>
+        <v>395700</v>
       </c>
       <c r="J89" s="3">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-38300</v>
+        <v>-38400</v>
       </c>
       <c r="E94" s="3">
-        <v>-44300</v>
+        <v>-44400</v>
       </c>
       <c r="F94" s="3">
         <v>5400</v>
       </c>
       <c r="G94" s="3">
-        <v>-97500</v>
+        <v>-97700</v>
       </c>
       <c r="H94" s="3">
-        <v>-170400</v>
+        <v>-170800</v>
       </c>
       <c r="I94" s="3">
-        <v>-139400</v>
+        <v>-139700</v>
       </c>
       <c r="J94" s="3">
-        <v>-30700</v>
+        <v>-30800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3924,19 +3924,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="F100" s="3">
         <v>1800</v>
       </c>
       <c r="G100" s="3">
-        <v>65000</v>
+        <v>65200</v>
       </c>
       <c r="H100" s="3">
-        <v>75200</v>
+        <v>75400</v>
       </c>
       <c r="I100" s="3">
-        <v>77600</v>
+        <v>77800</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -4002,19 +4002,19 @@
         <v>-14800</v>
       </c>
       <c r="E102" s="3">
-        <v>-52100</v>
+        <v>-52200</v>
       </c>
       <c r="F102" s="3">
-        <v>-233100</v>
+        <v>-233600</v>
       </c>
       <c r="G102" s="3">
-        <v>-90900</v>
+        <v>-91100</v>
       </c>
       <c r="H102" s="3">
-        <v>232900</v>
+        <v>233400</v>
       </c>
       <c r="I102" s="3">
-        <v>329900</v>
+        <v>330600</v>
       </c>
       <c r="J102" s="3">
         <v>28200</v>
